--- a/data/trans_orig/P64B-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P64B-Dificultad-trans_orig.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2007" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2012" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2016" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -743,19 +744,19 @@
         <v>10322</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4670</v>
+        <v>5079</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18912</v>
+        <v>19300</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04271420076270688</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01932438581135743</v>
+        <v>0.02101675184446611</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07825825127379085</v>
+        <v>0.07986696464645093</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -764,19 +765,19 @@
         <v>8987</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3900</v>
+        <v>3698</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17252</v>
+        <v>18238</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04129807574076873</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01792252151178764</v>
+        <v>0.01699466000762501</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07928390939441701</v>
+        <v>0.08381424875961073</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -785,19 +786,19 @@
         <v>19309</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11130</v>
+        <v>11293</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30621</v>
+        <v>29821</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04204322018235158</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02423385755457248</v>
+        <v>0.02458887262701188</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06667478333527864</v>
+        <v>0.06493238578231447</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +815,19 @@
         <v>44238</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33178</v>
+        <v>32833</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>58558</v>
+        <v>59474</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1830630939294653</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1372961868838748</v>
+        <v>0.1358679935114915</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2423183626918051</v>
+        <v>0.2461096734878755</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -835,19 +836,19 @@
         <v>59517</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>46197</v>
+        <v>46398</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>74694</v>
+        <v>73414</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2735103136175132</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2122975107816514</v>
+        <v>0.213223283578026</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3432555525176739</v>
+        <v>0.3373730040888009</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>94</v>
@@ -856,19 +857,19 @@
         <v>103755</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>85798</v>
+        <v>86051</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>122863</v>
+        <v>125143</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2259182988143775</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1868185541496775</v>
+        <v>0.1873693532021669</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2675243667211732</v>
+        <v>0.272488337964937</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +886,19 @@
         <v>4967</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1947</v>
+        <v>1928</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10828</v>
+        <v>10900</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02055240894617529</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008057207737294637</v>
+        <v>0.007979956488091003</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04480563659351613</v>
+        <v>0.04510566037951585</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -906,19 +907,19 @@
         <v>6058</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2293</v>
+        <v>2002</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13704</v>
+        <v>13133</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02783987986227949</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01053888485162739</v>
+        <v>0.009202033638714155</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06297825336132482</v>
+        <v>0.06035325744061829</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -927,19 +928,19 @@
         <v>11025</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5835</v>
+        <v>5647</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>20918</v>
+        <v>19211</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02400531839192306</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0127041764099187</v>
+        <v>0.01229692117049208</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04554797601777565</v>
+        <v>0.0418304637337324</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +957,19 @@
         <v>4770</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1854</v>
+        <v>1845</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10587</v>
+        <v>10456</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01974035810896268</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007673594597174939</v>
+        <v>0.007633342323059387</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04381096241960632</v>
+        <v>0.04326650034765432</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -977,19 +978,19 @@
         <v>14089</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8355</v>
+        <v>8448</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23816</v>
+        <v>24534</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06474807784279715</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03839593387997235</v>
+        <v>0.03882163420749229</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.109445441795638</v>
+        <v>0.1127469613921821</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -998,19 +999,19 @@
         <v>18860</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11105</v>
+        <v>11576</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29504</v>
+        <v>29046</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04106566868510484</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02418007244778539</v>
+        <v>0.02520618496019313</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06424229389121482</v>
+        <v>0.06324608996075959</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1028,19 @@
         <v>70018</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>55376</v>
+        <v>56294</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>85030</v>
+        <v>85318</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2897444632525208</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.22915418629872</v>
+        <v>0.2329503345976258</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3518619926272643</v>
+        <v>0.3530547148712215</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>63</v>
@@ -1048,19 +1049,19 @@
         <v>67088</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>53188</v>
+        <v>53888</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>81430</v>
+        <v>81181</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3083025836248933</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.244423683630209</v>
+        <v>0.24764202286478</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3742131827965832</v>
+        <v>0.3730698866877918</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>131</v>
@@ -1069,19 +1070,19 @@
         <v>137106</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>117612</v>
+        <v>117171</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>160144</v>
+        <v>157132</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2985375699237918</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2560900179396585</v>
+        <v>0.2551306121365933</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3487005661326769</v>
+        <v>0.3421412490246979</v>
       </c>
     </row>
     <row r="9">
@@ -1098,19 +1099,19 @@
         <v>107340</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>92176</v>
+        <v>90765</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>123234</v>
+        <v>122945</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.444185475000169</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3814366408675042</v>
+        <v>0.3755970165566548</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5099580579334578</v>
+        <v>0.5087608128973667</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>58</v>
@@ -1119,19 +1120,19 @@
         <v>61865</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>48333</v>
+        <v>49428</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>75847</v>
+        <v>76832</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2843010693117481</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2221159932974091</v>
+        <v>0.2271461835443356</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3485560049645969</v>
+        <v>0.3530822218265958</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>159</v>
@@ -1140,19 +1141,19 @@
         <v>169205</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>148073</v>
+        <v>149424</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>191250</v>
+        <v>191403</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3684299240024512</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3224175645149356</v>
+        <v>0.3253573809842718</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4164315249016553</v>
+        <v>0.4167647950470317</v>
       </c>
     </row>
     <row r="10">
@@ -1244,19 +1245,19 @@
         <v>30595</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20509</v>
+        <v>21047</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>43963</v>
+        <v>43360</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04827333743520718</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03235970699542381</v>
+        <v>0.03320914384546472</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06936555051412235</v>
+        <v>0.06841424601849988</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -1265,19 +1266,19 @@
         <v>16881</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9608</v>
+        <v>10161</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26712</v>
+        <v>27891</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06031351011141178</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03432670566545738</v>
+        <v>0.03630328673169861</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09543743421493965</v>
+        <v>0.09965056894568518</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>41</v>
@@ -1286,19 +1287,19 @@
         <v>47476</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35006</v>
+        <v>34408</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>65048</v>
+        <v>63333</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0519616487075439</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03831282447056472</v>
+        <v>0.03765874739712912</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07119411765420958</v>
+        <v>0.06931655808470906</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1316,19 @@
         <v>97774</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>78919</v>
+        <v>80711</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>116422</v>
+        <v>117159</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1542693133072431</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1245193794060084</v>
+        <v>0.127347166819777</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1836932529769874</v>
+        <v>0.1848551355120366</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>39</v>
@@ -1336,19 +1337,19 @@
         <v>40954</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>29816</v>
+        <v>29102</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>54411</v>
+        <v>53381</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1463222544905693</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1065278612744914</v>
+        <v>0.1039747916243819</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1944027132180728</v>
+        <v>0.1907211666879242</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>131</v>
@@ -1357,19 +1358,19 @@
         <v>138728</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>118454</v>
+        <v>120540</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>162553</v>
+        <v>164781</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.15183486096144</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1296460384034138</v>
+        <v>0.1319287499481384</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1779114366043466</v>
+        <v>0.1803496308192652</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1387,19 @@
         <v>13617</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7101</v>
+        <v>7493</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24023</v>
+        <v>24882</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02148529110998702</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01120478146156855</v>
+        <v>0.01182313822797053</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03790466892146136</v>
+        <v>0.03925887711160646</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1410,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9510</v>
+        <v>8789</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00866471285257466</v>
@@ -1419,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03397837600972823</v>
+        <v>0.03140297711252098</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1428,19 +1429,19 @@
         <v>16042</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9364</v>
+        <v>9208</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26731</v>
+        <v>26743</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01755791526776653</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0102489425552336</v>
+        <v>0.01007802793441742</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02925602193187038</v>
+        <v>0.02926958280976492</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1458,19 @@
         <v>11327</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6435</v>
+        <v>5722</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19735</v>
+        <v>19446</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01787159835044488</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01015278105697687</v>
+        <v>0.009028208455774053</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0311381760180286</v>
+        <v>0.0306818566035016</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -1478,19 +1479,19 @@
         <v>20608</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13172</v>
+        <v>13013</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30842</v>
+        <v>30752</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07362798602785767</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04706299326596495</v>
+        <v>0.04649400712207371</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1101918341523715</v>
+        <v>0.1098700925653512</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>30</v>
@@ -1499,19 +1500,19 @@
         <v>31934</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>21992</v>
+        <v>21630</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>45775</v>
+        <v>44536</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03495166179353858</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02407030568524487</v>
+        <v>0.0236740741841158</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05010014667125792</v>
+        <v>0.04874423661950754</v>
       </c>
     </row>
     <row r="15">
@@ -1528,19 +1529,19 @@
         <v>163607</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>142257</v>
+        <v>142153</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>187961</v>
+        <v>186463</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2581423881832809</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2244558597835499</v>
+        <v>0.2242921826314714</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2965692351893449</v>
+        <v>0.294205478301092</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>98</v>
@@ -1549,19 +1550,19 @@
         <v>100241</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>84369</v>
+        <v>84355</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>116179</v>
+        <v>115929</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.358144500595206</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3014369044935635</v>
+        <v>0.3013855519281556</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4150865436468492</v>
+        <v>0.4141952454078472</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>255</v>
@@ -1570,19 +1571,19 @@
         <v>263848</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>233294</v>
+        <v>238546</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>291832</v>
+        <v>291948</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2887764105005302</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2553351609429282</v>
+        <v>0.261083476996016</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3194039173882803</v>
+        <v>0.3195311509401301</v>
       </c>
     </row>
     <row r="16">
@@ -1599,19 +1600,19 @@
         <v>316866</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>289340</v>
+        <v>291039</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>341558</v>
+        <v>340603</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4999580716138369</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4565266650086151</v>
+        <v>0.4592075340058662</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5389170926699255</v>
+        <v>0.53741045525014</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>94</v>
@@ -1620,19 +1621,19 @@
         <v>98781</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>83130</v>
+        <v>83231</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>114539</v>
+        <v>115212</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3529270359223806</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2970101309135114</v>
+        <v>0.29737109884917</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4092268955975336</v>
+        <v>0.4116317697381218</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>401</v>
@@ -1641,19 +1642,19 @@
         <v>415647</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>383449</v>
+        <v>385564</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>447198</v>
+        <v>445330</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4549175027691807</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4196775239697227</v>
+        <v>0.4219916369325615</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4894489928389879</v>
+        <v>0.4874052394455533</v>
       </c>
     </row>
     <row r="17">
@@ -1745,19 +1746,19 @@
         <v>48396</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>36301</v>
+        <v>35196</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>63546</v>
+        <v>63106</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06988021341854349</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05241630618081599</v>
+        <v>0.05082049646534303</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09175641632074746</v>
+        <v>0.09112057079524889</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -1766,19 +1767,19 @@
         <v>14367</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7840</v>
+        <v>7649</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23618</v>
+        <v>24430</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04119692713755105</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02247940380185134</v>
+        <v>0.02193296027035371</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0677227574069466</v>
+        <v>0.07005129402318443</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>61</v>
@@ -1787,19 +1788,19 @@
         <v>62763</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>48900</v>
+        <v>48126</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>78247</v>
+        <v>79545</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06027372518172096</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04696054670376459</v>
+        <v>0.04621750366295505</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07514317896813709</v>
+        <v>0.0763897451632474</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1817,19 @@
         <v>128024</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>108629</v>
+        <v>108607</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>150554</v>
+        <v>150263</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1848576842860611</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1568536079296805</v>
+        <v>0.1568215869912396</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2173895188851612</v>
+        <v>0.2169696663626238</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>60</v>
@@ -1837,19 +1838,19 @@
         <v>63078</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48991</v>
+        <v>50160</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>77395</v>
+        <v>79499</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1808699791221997</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1404754375153384</v>
+        <v>0.1438277409442683</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2219236513886544</v>
+        <v>0.2279558903993036</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>183</v>
@@ -1858,19 +1859,19 @@
         <v>191102</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>165269</v>
+        <v>166352</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>217061</v>
+        <v>218569</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1835221384781898</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1587142255788517</v>
+        <v>0.159754165899984</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2084521682152531</v>
+        <v>0.2098998957913346</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1888,19 @@
         <v>15414</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8662</v>
+        <v>8741</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23977</v>
+        <v>26167</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02225660315440553</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01250781055349984</v>
+        <v>0.01262169013555644</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03462083723793151</v>
+        <v>0.03778377817930408</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1908,19 +1909,19 @@
         <v>4022</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1001</v>
+        <v>1057</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9905</v>
+        <v>9198</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0115340802474162</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002870640944486805</v>
+        <v>0.003030927461401584</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02840228797009217</v>
+        <v>0.02637359438307209</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>18</v>
@@ -1929,19 +1930,19 @@
         <v>19436</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>12100</v>
+        <v>11943</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30938</v>
+        <v>31459</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01866545989536719</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01162022946372955</v>
+        <v>0.0114693962598961</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02971057472915575</v>
+        <v>0.03021126463347645</v>
       </c>
     </row>
     <row r="21">
@@ -1958,19 +1959,19 @@
         <v>14509</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7980</v>
+        <v>8315</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>23656</v>
+        <v>23832</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02094951688499816</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01152243822902387</v>
+        <v>0.01200623094378078</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03415821154932402</v>
+        <v>0.03441186087471974</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>20</v>
@@ -1979,19 +1980,19 @@
         <v>19944</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13267</v>
+        <v>12963</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>30228</v>
+        <v>30523</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0571880976190255</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03804202498370324</v>
+        <v>0.03717038119593832</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08667689117097827</v>
+        <v>0.08752197759439048</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>34</v>
@@ -2000,19 +2001,19 @@
         <v>34453</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>24106</v>
+        <v>25268</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>47340</v>
+        <v>47011</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0330863932571895</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02315029112169371</v>
+        <v>0.02426593123308555</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0454622365405068</v>
+        <v>0.04514596266642514</v>
       </c>
     </row>
     <row r="22">
@@ -2029,19 +2030,19 @@
         <v>184168</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>159958</v>
+        <v>161119</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>206717</v>
+        <v>209202</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.265926154822138</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2309683132691702</v>
+        <v>0.2326454333615552</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2984859552852121</v>
+        <v>0.3020730647399564</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>117</v>
@@ -2050,19 +2051,19 @@
         <v>120296</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>103381</v>
+        <v>103710</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>137777</v>
+        <v>138798</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3449369065912471</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2964356571487456</v>
+        <v>0.2973785278246303</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3950615163161596</v>
+        <v>0.3979903615923822</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>295</v>
@@ -2071,19 +2072,19 @@
         <v>304464</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>274316</v>
+        <v>275369</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>336170</v>
+        <v>334120</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2923881107506478</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2634353760722752</v>
+        <v>0.2644469704153444</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3228368882114087</v>
+        <v>0.3208677120989203</v>
       </c>
     </row>
     <row r="23">
@@ -2100,19 +2101,19 @@
         <v>302043</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>274268</v>
+        <v>277032</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>325725</v>
+        <v>328786</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4361298274338538</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3960247630794445</v>
+        <v>0.4000162392495309</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.470324493774399</v>
+        <v>0.4747453949524386</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>125</v>
@@ -2121,19 +2122,19 @@
         <v>127040</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>108368</v>
+        <v>110163</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>143294</v>
+        <v>145155</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3642740092825605</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3107347734382456</v>
+        <v>0.3158823759606132</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4108824463036348</v>
+        <v>0.4162188122855731</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>418</v>
@@ -2142,19 +2143,19 @@
         <v>429083</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>396329</v>
+        <v>397614</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>460884</v>
+        <v>463015</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4120641724368848</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3806097900157508</v>
+        <v>0.3818430995619887</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4426038996726072</v>
+        <v>0.4446502358296427</v>
       </c>
     </row>
     <row r="24">
@@ -2246,19 +2247,19 @@
         <v>25236</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16507</v>
+        <v>16221</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>36362</v>
+        <v>37277</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08380786154009846</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05481741034799278</v>
+        <v>0.05386871508692169</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1207566786102005</v>
+        <v>0.1237958859656268</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -2267,19 +2268,19 @@
         <v>8210</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3292</v>
+        <v>3988</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15265</v>
+        <v>15151</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05204942801858224</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02087198196717568</v>
+        <v>0.02528567451424164</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09677650295859462</v>
+        <v>0.09605188619770853</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>32</v>
@@ -2288,19 +2289,19 @@
         <v>33446</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>23281</v>
+        <v>23410</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>46249</v>
+        <v>46925</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07289059296410473</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05073755680757718</v>
+        <v>0.05101862379050322</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.100792100633678</v>
+        <v>0.1022644210959313</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2318,19 @@
         <v>66477</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>53152</v>
+        <v>52241</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>82823</v>
+        <v>81755</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2207668691008353</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1765136108454516</v>
+        <v>0.1734886946745297</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2750501179620115</v>
+        <v>0.2715047387436637</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>32</v>
@@ -2338,19 +2339,19 @@
         <v>31796</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>22003</v>
+        <v>22730</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>42885</v>
+        <v>42979</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2015784503334188</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1394905555252521</v>
+        <v>0.1441031949229354</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2718764051803956</v>
+        <v>0.2724753020340995</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>95</v>
@@ -2359,19 +2360,19 @@
         <v>98273</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>81215</v>
+        <v>82158</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>117121</v>
+        <v>116174</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2141706646283886</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1769938776898597</v>
+        <v>0.1790497181419895</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2552467608258329</v>
+        <v>0.2531830561474652</v>
       </c>
     </row>
     <row r="27">
@@ -2388,19 +2389,19 @@
         <v>3539</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>10717</v>
+        <v>10116</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.0117518503263816</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.003263983306174654</v>
+        <v>0.003234675207966322</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03558977607741907</v>
+        <v>0.03359597688311249</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>0</v>
@@ -2422,19 +2423,19 @@
         <v>3539</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>10299</v>
+        <v>10157</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.007712038155196707</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.002109426973676468</v>
+        <v>0.002122993028603089</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02244520579183159</v>
+        <v>0.02213537419542209</v>
       </c>
     </row>
     <row r="28">
@@ -2451,19 +2452,19 @@
         <v>5858</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1887</v>
+        <v>2394</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>13728</v>
+        <v>13856</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01945517166624232</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006267036028159535</v>
+        <v>0.007948693158086247</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04558887611546248</v>
+        <v>0.04601661975103531</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -2472,19 +2473,19 @@
         <v>4038</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10373</v>
+        <v>9408</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02559840545320324</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006372969414006717</v>
+        <v>0.006409800124764197</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06576409015537837</v>
+        <v>0.05964685305198007</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>9</v>
@@ -2493,19 +2494,19 @@
         <v>9896</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4799</v>
+        <v>4308</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>18910</v>
+        <v>18270</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02156696767570021</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01045762101959214</v>
+        <v>0.009389224786468937</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0412108225593399</v>
+        <v>0.03981717000823895</v>
       </c>
     </row>
     <row r="29">
@@ -2522,19 +2523,19 @@
         <v>91728</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>75452</v>
+        <v>75610</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>109049</v>
+        <v>107238</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3046244266361819</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2505716833838492</v>
+        <v>0.2510980610414385</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3621473633172438</v>
+        <v>0.3561308802181765</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>65</v>
@@ -2543,19 +2544,19 @@
         <v>67556</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>55014</v>
+        <v>56061</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>79182</v>
+        <v>79763</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4282878288975339</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3487753162857192</v>
+        <v>0.3554091650316139</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5019878334229418</v>
+        <v>0.50567512413519</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>155</v>
@@ -2564,19 +2565,19 @@
         <v>159285</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>139446</v>
+        <v>138066</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>179554</v>
+        <v>180995</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3471349167897238</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3038988746951802</v>
+        <v>0.3008915869078065</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3913096685210761</v>
+        <v>0.3944485430950243</v>
       </c>
     </row>
     <row r="30">
@@ -2593,19 +2594,19 @@
         <v>108281</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>90213</v>
+        <v>93226</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>125309</v>
+        <v>126097</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3595938207302605</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2995918052349122</v>
+        <v>0.3095980516590607</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4161432856469764</v>
+        <v>0.4187599389982548</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>46</v>
@@ -2614,19 +2615,19 @@
         <v>46136</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>34433</v>
+        <v>35191</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>57875</v>
+        <v>56976</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2924858872972618</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2182955832903055</v>
+        <v>0.2231012155378169</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3669090872469419</v>
+        <v>0.3612123586676247</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>148</v>
@@ -2635,19 +2636,19 @@
         <v>154416</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>133040</v>
+        <v>133046</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>173945</v>
+        <v>176731</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3365248197868859</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2899396695539366</v>
+        <v>0.289952192487083</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3790841281063391</v>
+        <v>0.3851569017222788</v>
       </c>
     </row>
     <row r="31">
@@ -2739,19 +2740,19 @@
         <v>114549</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>93305</v>
+        <v>93475</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>136755</v>
+        <v>136559</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06128518693849979</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04991932003110115</v>
+        <v>0.05001009934726625</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07316581340188429</v>
+        <v>0.07306076763661616</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>43</v>
@@ -2760,19 +2761,19 @@
         <v>48445</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>36536</v>
+        <v>35471</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>65138</v>
+        <v>65236</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04825323380781165</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03639155099291765</v>
+        <v>0.03533037640708767</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06487941268347107</v>
+        <v>0.06497755865342077</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>150</v>
@@ -2781,19 +2782,19 @@
         <v>162994</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>138080</v>
+        <v>138324</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>189965</v>
+        <v>190282</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05673128023925308</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04805975831804619</v>
+        <v>0.04814451686985968</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06611874192070949</v>
+        <v>0.066228863758294</v>
       </c>
     </row>
     <row r="33">
@@ -2810,19 +2811,19 @@
         <v>336513</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>307840</v>
+        <v>301366</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>374997</v>
+        <v>372249</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1800387059061353</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1646983347565937</v>
+        <v>0.1612347689181988</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2006283033643999</v>
+        <v>0.1991577425631703</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>185</v>
@@ -2831,19 +2832,19 @@
         <v>195345</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>171210</v>
+        <v>170626</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>223316</v>
+        <v>223336</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1945712883106798</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1705312159822455</v>
+        <v>0.169950119924215</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2224309450991871</v>
+        <v>0.2224508934329573</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>503</v>
@@ -2852,19 +2853,19 @@
         <v>531858</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>491308</v>
+        <v>492394</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>574292</v>
+        <v>576469</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1851169949166725</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1710030517916495</v>
+        <v>0.1713811066219799</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1998862591696088</v>
+        <v>0.2006440120512516</v>
       </c>
     </row>
     <row r="34">
@@ -2881,19 +2882,19 @@
         <v>37536</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>26586</v>
+        <v>25329</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>51618</v>
+        <v>50259</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02008238724192347</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01422381373695327</v>
+        <v>0.01355122814920828</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02761624633862609</v>
+        <v>0.0268893367988527</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>11</v>
@@ -2902,19 +2903,19 @@
         <v>12506</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>6552</v>
+        <v>6731</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>21901</v>
+        <v>22742</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01245617372327783</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.00652615046541821</v>
+        <v>0.006704496404971358</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02181427786485895</v>
+        <v>0.02265216972314828</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>45</v>
@@ -2923,19 +2924,19 @@
         <v>50042</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>36956</v>
+        <v>36500</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>66993</v>
+        <v>68096</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01741747090250963</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01286272645470514</v>
+        <v>0.01270391338186733</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02331748662337415</v>
+        <v>0.02370135011721015</v>
       </c>
     </row>
     <row r="35">
@@ -2952,19 +2953,19 @@
         <v>36464</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>25443</v>
+        <v>25571</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>50743</v>
+        <v>51673</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01950877082400497</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01361228193676198</v>
+        <v>0.01368080175945959</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02714795595697108</v>
+        <v>0.02764568270318016</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>56</v>
@@ -2973,19 +2974,19 @@
         <v>58679</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>45742</v>
+        <v>44538</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>74684</v>
+        <v>75085</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05844670359398815</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04556030441866756</v>
+        <v>0.04436117695913883</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07438761522029157</v>
+        <v>0.07478760247872078</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>91</v>
@@ -2994,19 +2995,19 @@
         <v>95143</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>79117</v>
+        <v>76853</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>117116</v>
+        <v>117281</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0331153047884715</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0275371367379338</v>
+        <v>0.02674917629250566</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04076313059468865</v>
+        <v>0.04082044682181411</v>
       </c>
     </row>
     <row r="36">
@@ -3023,19 +3024,19 @@
         <v>509522</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>470498</v>
+        <v>471409</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>551586</v>
+        <v>546925</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2726006422405653</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2517226074886955</v>
+        <v>0.2522099684362595</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2951056540705106</v>
+        <v>0.2926118007797608</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>343</v>
@@ -3044,19 +3045,19 @@
         <v>355181</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>323658</v>
+        <v>323736</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>384086</v>
+        <v>385249</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3537740794229932</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3223757850609746</v>
+        <v>0.322453261850675</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3825640917914778</v>
+        <v>0.3837223295806541</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>836</v>
@@ -3065,19 +3066,19 @@
         <v>864703</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>813896</v>
+        <v>816549</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>916465</v>
+        <v>918817</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3009660189173321</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2832823724492994</v>
+        <v>0.2842056485662709</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3189822412771456</v>
+        <v>0.3198005988170821</v>
       </c>
     </row>
     <row r="37">
@@ -3094,19 +3095,19 @@
         <v>834530</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>793565</v>
+        <v>790251</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>880206</v>
+        <v>878573</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4464843068488712</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4245674582104493</v>
+        <v>0.4227943798478296</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4709213200604844</v>
+        <v>0.4700476598912521</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>323</v>
@@ -3115,19 +3116,19 @@
         <v>333821</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>306808</v>
+        <v>307045</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>365194</v>
+        <v>368162</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3324985211412494</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3055927494321075</v>
+        <v>0.3058287830386149</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3637468687033311</v>
+        <v>0.366702819830272</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1126</v>
@@ -3136,19 +3137,19 @@
         <v>1168351</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1117225</v>
+        <v>1118838</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1221807</v>
+        <v>1225826</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4066529302357612</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3888581978448763</v>
+        <v>0.3894194053036764</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4252584182358635</v>
+        <v>0.4266575159980633</v>
       </c>
     </row>
     <row r="38">
@@ -3480,19 +3481,19 @@
         <v>15159</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8675</v>
+        <v>8607</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26048</v>
+        <v>25720</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05504673476704763</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03150224981618841</v>
+        <v>0.0312532649045038</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09458727220898976</v>
+        <v>0.09339682444567707</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -3501,19 +3502,19 @@
         <v>21441</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12639</v>
+        <v>13258</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31453</v>
+        <v>31173</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09599915202338254</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05658991095155892</v>
+        <v>0.0593615618110646</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1408284246296972</v>
+        <v>0.1395740104294102</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -3522,19 +3523,19 @@
         <v>36600</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26168</v>
+        <v>25507</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50672</v>
+        <v>49793</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07338655354788454</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05246995151873093</v>
+        <v>0.05114451912674944</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1016032054065684</v>
+        <v>0.09983977130998049</v>
       </c>
     </row>
     <row r="5">
@@ -3551,19 +3552,19 @@
         <v>57943</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>43320</v>
+        <v>45258</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>73276</v>
+        <v>72871</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2104100157110616</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1573076927452319</v>
+        <v>0.1643479286992031</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2660880945349366</v>
+        <v>0.2646175905197112</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -3572,19 +3573,19 @@
         <v>36255</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25342</v>
+        <v>25987</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48307</v>
+        <v>50395</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1623286146661556</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1134633283330479</v>
+        <v>0.1163519985731379</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2162888176494214</v>
+        <v>0.2256383790808531</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>86</v>
@@ -3593,19 +3594,19 @@
         <v>94199</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>75544</v>
+        <v>76323</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>113741</v>
+        <v>113618</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1888776071019968</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.151473890590601</v>
+        <v>0.1530345382470351</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2280621521798047</v>
+        <v>0.2278153872252722</v>
       </c>
     </row>
     <row r="6">
@@ -3622,19 +3623,19 @@
         <v>19822</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12593</v>
+        <v>12851</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30658</v>
+        <v>29442</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07198098829168684</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04572992827018512</v>
+        <v>0.04666645239803021</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1113305422823251</v>
+        <v>0.106914391346674</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -3643,19 +3644,19 @@
         <v>4380</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1040</v>
+        <v>1237</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10016</v>
+        <v>10969</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01960869520010465</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004657187293689473</v>
+        <v>0.005537668086249247</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04484695194983935</v>
+        <v>0.04911386396169692</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>23</v>
@@ -3664,19 +3665,19 @@
         <v>24202</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14931</v>
+        <v>15949</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34901</v>
+        <v>36224</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04852697925421262</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02993727636479552</v>
+        <v>0.03198021732971244</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06998066055480308</v>
+        <v>0.07263308236041954</v>
       </c>
     </row>
     <row r="7">
@@ -3693,19 +3694,19 @@
         <v>7121</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2939</v>
+        <v>3228</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13535</v>
+        <v>13869</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02586036207256108</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01067377305013218</v>
+        <v>0.01172171128331522</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04914894760539979</v>
+        <v>0.05036411013386333</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -3714,19 +3715,19 @@
         <v>17585</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10603</v>
+        <v>10384</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28013</v>
+        <v>27898</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07873348450783561</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0474724456050693</v>
+        <v>0.04649143518042392</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1254252784671864</v>
+        <v>0.1249105593397661</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -3735,19 +3736,19 @@
         <v>24706</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16065</v>
+        <v>15942</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36612</v>
+        <v>36366</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04953865871059256</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03221145462831831</v>
+        <v>0.0319647733284218</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07341072073428846</v>
+        <v>0.07291668606031705</v>
       </c>
     </row>
     <row r="8">
@@ -3764,19 +3765,19 @@
         <v>71084</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>55525</v>
+        <v>56555</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>84308</v>
+        <v>87788</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2581311236350795</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2016304392383923</v>
+        <v>0.2053715142730922</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3061496672287231</v>
+        <v>0.3187868695389587</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>66</v>
@@ -3785,19 +3786,19 @@
         <v>74020</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>59734</v>
+        <v>59882</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>88254</v>
+        <v>89721</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.331414907005948</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2674488184451784</v>
+        <v>0.2681113185462941</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3951430988504697</v>
+        <v>0.4017134860409686</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>130</v>
@@ -3806,19 +3807,19 @@
         <v>145105</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>125692</v>
+        <v>124228</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>167570</v>
+        <v>167348</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2909499752838899</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2520253365042778</v>
+        <v>0.2490899039932006</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3359942094722037</v>
+        <v>0.3355488164231791</v>
       </c>
     </row>
     <row r="9">
@@ -3835,19 +3836,19 @@
         <v>104251</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>87816</v>
+        <v>87475</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>122383</v>
+        <v>120482</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3785707755225635</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3188900524383027</v>
+        <v>0.3176499753218114</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4444122070368652</v>
+        <v>0.4375115384066974</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>65</v>
@@ -3856,19 +3857,19 @@
         <v>69665</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>56209</v>
+        <v>56179</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>85504</v>
+        <v>85186</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3119151465965735</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2516678396726131</v>
+        <v>0.2515312871156092</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3828338949076581</v>
+        <v>0.3814066744643274</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>166</v>
@@ -3877,19 +3878,19 @@
         <v>173917</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>153699</v>
+        <v>152852</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>196385</v>
+        <v>196112</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3487202261014236</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3081814329427782</v>
+        <v>0.3064833784128941</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3937711370732876</v>
+        <v>0.3932252551337466</v>
       </c>
     </row>
     <row r="10">
@@ -3981,19 +3982,19 @@
         <v>20138</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12141</v>
+        <v>13020</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>29991</v>
+        <v>31277</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05359713466910691</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03231445469571394</v>
+        <v>0.03465204653793963</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07982328822138886</v>
+        <v>0.08324384169231759</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>18</v>
@@ -4002,19 +4003,19 @@
         <v>20288</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12404</v>
+        <v>12450</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>30179</v>
+        <v>31408</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07946633542929912</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04858649808334541</v>
+        <v>0.04876624944183505</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1182089834550076</v>
+        <v>0.1230266314846453</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>37</v>
@@ -4023,19 +4024,19 @@
         <v>40425</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>28479</v>
+        <v>27926</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>54155</v>
+        <v>53365</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06406330313196752</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04513142228601245</v>
+        <v>0.04425567648371641</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08582090888271468</v>
+        <v>0.08456942690291834</v>
       </c>
     </row>
     <row r="12">
@@ -4052,19 +4053,19 @@
         <v>93997</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>78388</v>
+        <v>77569</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>112018</v>
+        <v>111715</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2501767994415959</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2086337972626039</v>
+        <v>0.2064538800694469</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2981410610754113</v>
+        <v>0.297333018939717</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>31</v>
@@ -4073,19 +4074,19 @@
         <v>34598</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>23403</v>
+        <v>23897</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>47680</v>
+        <v>47353</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1355213585548612</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09167087968358967</v>
+        <v>0.09360541416603593</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1867614952836019</v>
+        <v>0.1854794517281132</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>122</v>
@@ -4094,19 +4095,19 @@
         <v>128595</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>109952</v>
+        <v>107954</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>149040</v>
+        <v>149771</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2037894691708169</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.174244996397752</v>
+        <v>0.1710782633264951</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2361897690101288</v>
+        <v>0.2373481166544832</v>
       </c>
     </row>
     <row r="13">
@@ -4123,19 +4124,19 @@
         <v>6158</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2334</v>
+        <v>2812</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12332</v>
+        <v>13340</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01638872560895382</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006213010789471553</v>
+        <v>0.007483683792110368</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0328219286003404</v>
+        <v>0.03550471285799187</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -4144,19 +4145,19 @@
         <v>5096</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1905</v>
+        <v>1167</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12850</v>
+        <v>13521</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01996247730464369</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007463011162275937</v>
+        <v>0.004571525601284114</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05033437705516713</v>
+        <v>0.0529609220298228</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -4165,19 +4166,19 @@
         <v>11254</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5943</v>
+        <v>5820</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20573</v>
+        <v>20370</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01783459506732073</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009418299155736999</v>
+        <v>0.009223611619938909</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03260255565453461</v>
+        <v>0.03228046565568162</v>
       </c>
     </row>
     <row r="14">
@@ -4194,19 +4195,19 @@
         <v>7029</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2824</v>
+        <v>3082</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13812</v>
+        <v>14951</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01870666300723</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007515899624398206</v>
+        <v>0.008202418093622179</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03676081166036107</v>
+        <v>0.03979168926182038</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -4215,19 +4216,19 @@
         <v>17440</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10328</v>
+        <v>10300</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28854</v>
+        <v>27618</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0683117627216152</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04045333066666775</v>
+        <v>0.04034398247189513</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1130200793562129</v>
+        <v>0.1081775666967216</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -4236,19 +4237,19 @@
         <v>24468</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15916</v>
+        <v>15862</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>36591</v>
+        <v>36604</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03877590809294082</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02522201932738998</v>
+        <v>0.02513668129166395</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05798765617084525</v>
+        <v>0.0580077827609505</v>
       </c>
     </row>
     <row r="15">
@@ -4265,19 +4266,19 @@
         <v>96090</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>80145</v>
+        <v>79441</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>115152</v>
+        <v>112851</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2557479548204174</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2133106146766701</v>
+        <v>0.2114362929785088</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3064811770974973</v>
+        <v>0.3003581127339751</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>90</v>
@@ -4286,19 +4287,19 @@
         <v>97113</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>80488</v>
+        <v>81062</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>113273</v>
+        <v>113479</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3803894589716441</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3152689364445203</v>
+        <v>0.3175201699364657</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4436876511093887</v>
+        <v>0.4444958627204315</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>185</v>
@@ -4307,19 +4308,19 @@
         <v>193203</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>170750</v>
+        <v>171503</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>216112</v>
+        <v>218267</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.306175449353549</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2705930270828353</v>
+        <v>0.271786577745743</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3424809754971229</v>
+        <v>0.3458957934068333</v>
       </c>
     </row>
     <row r="16">
@@ -4336,19 +4337,19 @@
         <v>152311</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>134322</v>
+        <v>133160</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>171295</v>
+        <v>169860</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.405382722452696</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.35750255721854</v>
+        <v>0.3544118138986063</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4559077061606883</v>
+        <v>0.4520884100816643</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>75</v>
@@ -4357,19 +4358,19 @@
         <v>80763</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>66034</v>
+        <v>66085</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>96993</v>
+        <v>97109</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3163486070179368</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.258655332361942</v>
+        <v>0.2588554891867972</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3799223481712042</v>
+        <v>0.3803738500134224</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>220</v>
@@ -4378,19 +4379,19 @@
         <v>233074</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>208679</v>
+        <v>206886</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>259216</v>
+        <v>257106</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3693612751834049</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.330700527609963</v>
+        <v>0.3278591230985447</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4107883105925378</v>
+        <v>0.407445857783638</v>
       </c>
     </row>
     <row r="17">
@@ -4482,19 +4483,19 @@
         <v>19901</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12419</v>
+        <v>12862</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>29456</v>
+        <v>30246</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04424004837337596</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02760806704396922</v>
+        <v>0.02859238280919682</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06548273729426005</v>
+        <v>0.06723894217216715</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -4503,19 +4504,19 @@
         <v>11397</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5377</v>
+        <v>5904</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19806</v>
+        <v>20561</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04164554649263979</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0196488707023926</v>
+        <v>0.02157267297151207</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07237417710074093</v>
+        <v>0.07513091938510102</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>29</v>
@@ -4524,19 +4525,19 @@
         <v>31298</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>21923</v>
+        <v>21620</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>43331</v>
+        <v>44478</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04325866676374447</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03030121284870446</v>
+        <v>0.02988199448674801</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05989108512928806</v>
+        <v>0.06147581526438023</v>
       </c>
     </row>
     <row r="19">
@@ -4553,19 +4554,19 @@
         <v>119093</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>99225</v>
+        <v>100331</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>137868</v>
+        <v>139678</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2647496536182346</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2205806170434228</v>
+        <v>0.2230393096879644</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3064869417543206</v>
+        <v>0.3105095434849364</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>40</v>
@@ -4574,19 +4575,19 @@
         <v>42171</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31477</v>
+        <v>31103</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>54894</v>
+        <v>56003</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1540967069360768</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.115018614287018</v>
+        <v>0.1136528966513173</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2005856169029082</v>
+        <v>0.2046402039541846</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>150</v>
@@ -4595,19 +4596,19 @@
         <v>161265</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>139481</v>
+        <v>140426</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>187068</v>
+        <v>184853</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2228946957430101</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1927856890061622</v>
+        <v>0.1940924178376773</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2585590987422458</v>
+        <v>0.2554973769122822</v>
       </c>
     </row>
     <row r="20">
@@ -4624,19 +4625,19 @@
         <v>8374</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3740</v>
+        <v>3915</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16832</v>
+        <v>18784</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01861627409243891</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008313898111870603</v>
+        <v>0.008703304700933877</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0374172330369465</v>
+        <v>0.04175651483700608</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -4648,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5018</v>
+        <v>5613</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003602721648257771</v>
@@ -4657,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01833675360053777</v>
+        <v>0.02051098290846011</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -4666,19 +4667,19 @@
         <v>9360</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4161</v>
+        <v>4484</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18688</v>
+        <v>18989</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01293733264577611</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005750629041209454</v>
+        <v>0.006197731792545078</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02583026418669276</v>
+        <v>0.02624652245495662</v>
       </c>
     </row>
     <row r="21">
@@ -4695,19 +4696,19 @@
         <v>9141</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4390</v>
+        <v>4023</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18163</v>
+        <v>17862</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02031998212755621</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.009758793611782467</v>
+        <v>0.008942394064498146</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04037611859845175</v>
+        <v>0.03970853870399967</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -4716,19 +4717,19 @@
         <v>22210</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13812</v>
+        <v>14440</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>32550</v>
+        <v>32913</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08115562911295808</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05046914864180469</v>
+        <v>0.05276316206156718</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1189390193759577</v>
+        <v>0.1202645883535711</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>29</v>
@@ -4737,19 +4738,19 @@
         <v>31350</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>21438</v>
+        <v>21658</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>44792</v>
+        <v>44550</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04333132993377414</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0296308583439113</v>
+        <v>0.02993498223721699</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06191061772976359</v>
+        <v>0.06157581003192168</v>
       </c>
     </row>
     <row r="22">
@@ -4766,19 +4767,19 @@
         <v>112917</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>94366</v>
+        <v>94748</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>131539</v>
+        <v>130976</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2510185656844491</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.209779204904547</v>
+        <v>0.2106291234476579</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.292416175434168</v>
+        <v>0.2911657411558733</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>95</v>
@@ -4787,19 +4788,19 @@
         <v>100766</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>84385</v>
+        <v>84305</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>117127</v>
+        <v>117244</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3682054137905669</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3083496806446203</v>
+        <v>0.3080563396972741</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4279876271488022</v>
+        <v>0.428415160986841</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>206</v>
@@ -4808,19 +4809,19 @@
         <v>213683</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>191461</v>
+        <v>191762</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>238508</v>
+        <v>243797</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2953450001634215</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2646306324298158</v>
+        <v>0.2650470876332842</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3296575300170169</v>
+        <v>0.3369684457542886</v>
       </c>
     </row>
     <row r="23">
@@ -4837,19 +4838,19 @@
         <v>180408</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>158597</v>
+        <v>160064</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>201837</v>
+        <v>203387</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4010554761039452</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3525671146329707</v>
+        <v>0.3558281247712963</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4486915962705932</v>
+        <v>0.452137439399439</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>91</v>
@@ -4858,19 +4859,19 @@
         <v>96138</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>80463</v>
+        <v>80117</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>112642</v>
+        <v>112443</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3512939820195007</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2940161721552099</v>
+        <v>0.2927528279123559</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4116009207981305</v>
+        <v>0.4108736556056093</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>261</v>
@@ -4879,19 +4880,19 @@
         <v>276546</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>247485</v>
+        <v>250911</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>300901</v>
+        <v>305524</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3822329747502737</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3420650078964454</v>
+        <v>0.3468008489724692</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4158951755826233</v>
+        <v>0.4222843075537174</v>
       </c>
     </row>
     <row r="24">
@@ -4983,19 +4984,19 @@
         <v>20201</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11961</v>
+        <v>11376</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>32860</v>
+        <v>31986</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07161111424791165</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04240106037821186</v>
+        <v>0.04032794697619696</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1164851861978941</v>
+        <v>0.1133871760247678</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -5004,19 +5005,19 @@
         <v>12488</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6391</v>
+        <v>6329</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22306</v>
+        <v>21351</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06844841908281972</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03503172167769508</v>
+        <v>0.03468886399529948</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1222596952612339</v>
+        <v>0.1170227285760784</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>27</v>
@@ -5025,19 +5026,19 @@
         <v>32689</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>22006</v>
+        <v>22058</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>46778</v>
+        <v>48796</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07036897583555619</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04737180034098271</v>
+        <v>0.0474839121677092</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.100696587923277</v>
+        <v>0.1050408272855437</v>
       </c>
     </row>
     <row r="26">
@@ -5054,19 +5055,19 @@
         <v>59860</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>46691</v>
+        <v>44728</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>77341</v>
+        <v>75658</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2121966342591008</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1655156988637847</v>
+        <v>0.1585571454414957</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2741644411261957</v>
+        <v>0.2682011063974435</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>31</v>
@@ -5075,19 +5076,19 @@
         <v>35663</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>26116</v>
+        <v>24631</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>48835</v>
+        <v>48203</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1954690137187463</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1431446839796003</v>
+        <v>0.1350017384980728</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2676639791456579</v>
+        <v>0.2642019594777741</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>82</v>
@@ -5096,19 +5097,19 @@
         <v>95523</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>77920</v>
+        <v>78947</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>114850</v>
+        <v>115844</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2056269147838201</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1677345661000962</v>
+        <v>0.169944377068136</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2472325640967182</v>
+        <v>0.2493711192415745</v>
       </c>
     </row>
     <row r="27">
@@ -5125,19 +5126,19 @@
         <v>9874</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4902</v>
+        <v>4883</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>19309</v>
+        <v>19938</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.03500167329288564</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01737785600971942</v>
+        <v>0.01730887867491848</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.06844668809541134</v>
+        <v>0.07067707083483313</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -5149,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>6143</v>
+        <v>5194</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.005558725472824257</v>
@@ -5158,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03366824190371423</v>
+        <v>0.02846658371395127</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>9</v>
@@ -5167,19 +5168,19 @@
         <v>10888</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5090</v>
+        <v>5151</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>22697</v>
+        <v>20932</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02343804968984631</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.010956329095395</v>
+        <v>0.01108735015754914</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.04885876761900078</v>
+        <v>0.04505819023965318</v>
       </c>
     </row>
     <row r="28">
@@ -5196,19 +5197,19 @@
         <v>4847</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>965</v>
+        <v>1799</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>12501</v>
+        <v>12995</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01718253243794602</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003421853935525113</v>
+        <v>0.00637672530730181</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04431532875054651</v>
+        <v>0.04606485113679812</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -5217,19 +5218,19 @@
         <v>10979</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5187</v>
+        <v>4369</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>20941</v>
+        <v>19042</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06017534699078299</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02843150007578737</v>
+        <v>0.02394864683522914</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1147781996652882</v>
+        <v>0.1043719700115142</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>13</v>
@@ -5238,19 +5239,19 @@
         <v>15826</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>8478</v>
+        <v>8971</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>27112</v>
+        <v>28018</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03406782287022862</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01825104079166697</v>
+        <v>0.01931090377716005</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05836184969209596</v>
+        <v>0.06031326704486072</v>
       </c>
     </row>
     <row r="29">
@@ -5267,19 +5268,19 @@
         <v>91496</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>73834</v>
+        <v>75899</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>108804</v>
+        <v>109853</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3243441616203576</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2617320385064176</v>
+        <v>0.2690543650077427</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3856975230750989</v>
+        <v>0.38941537362041</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>68</v>
@@ -5288,19 +5289,19 @@
         <v>73382</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>60000</v>
+        <v>58890</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>89389</v>
+        <v>87739</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4022072108690192</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3288605732487381</v>
+        <v>0.3227754734226795</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4899415884572804</v>
+        <v>0.4809004271566213</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>152</v>
@@ -5309,19 +5310,19 @@
         <v>164878</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>142054</v>
+        <v>143755</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>186513</v>
+        <v>185985</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3549246252206412</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3057929196450578</v>
+        <v>0.3094538659054263</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4014979522613166</v>
+        <v>0.4003606168092132</v>
       </c>
     </row>
     <row r="30">
@@ -5338,19 +5339,19 @@
         <v>95818</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>78354</v>
+        <v>79344</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>112006</v>
+        <v>113805</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3396638841417983</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.277755623712896</v>
+        <v>0.2812643075238002</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3970505591170667</v>
+        <v>0.4034248711604086</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>45</v>
@@ -5359,19 +5360,19 @@
         <v>48922</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>37331</v>
+        <v>37788</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>63973</v>
+        <v>63893</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2681412838658075</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2046090701769424</v>
+        <v>0.2071141128322287</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3506386102923344</v>
+        <v>0.3502009956442363</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>138</v>
@@ -5380,19 +5381,19 @@
         <v>144740</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>124595</v>
+        <v>125104</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>168093</v>
+        <v>164581</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3115736115999075</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2682097031354024</v>
+        <v>0.2693052736924197</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3618455043853328</v>
+        <v>0.3542853789768965</v>
       </c>
     </row>
     <row r="31">
@@ -5484,19 +5485,19 @@
         <v>75398</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>60524</v>
+        <v>59070</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>95907</v>
+        <v>95410</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05451664851504423</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04376182236237885</v>
+        <v>0.04271020662126408</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06934567945254297</v>
+        <v>0.06898627736501944</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>59</v>
@@ -5505,19 +5506,19 @@
         <v>65614</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>51813</v>
+        <v>50790</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>83340</v>
+        <v>84154</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07019338945229796</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05542872151110106</v>
+        <v>0.05433450090337638</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0891561705048645</v>
+        <v>0.09002779243570995</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>126</v>
@@ -5526,19 +5527,19 @@
         <v>141012</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>119254</v>
+        <v>119153</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>168906</v>
+        <v>167445</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06083904036541184</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05145162198513131</v>
+        <v>0.05140782823437541</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07287354195294309</v>
+        <v>0.07224327028806179</v>
       </c>
     </row>
     <row r="33">
@@ -5555,19 +5556,19 @@
         <v>330893</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>300261</v>
+        <v>297716</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>365225</v>
+        <v>364713</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2392517554105458</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2171032526536493</v>
+        <v>0.2152630310258855</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2640756029079994</v>
+        <v>0.2637052061438296</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>136</v>
@@ -5576,19 +5577,19 @@
         <v>148688</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>126940</v>
+        <v>126793</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>173934</v>
+        <v>172869</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1590654745895105</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1357995686613619</v>
+        <v>0.135642379035347</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1860729310222015</v>
+        <v>0.1849334588807291</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>440</v>
@@ -5597,19 +5598,19 @@
         <v>479581</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>438030</v>
+        <v>438209</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>521750</v>
+        <v>517107</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2069128215464634</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1889856288870136</v>
+        <v>0.1890630779695419</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.225106111654162</v>
+        <v>0.2231030157450416</v>
       </c>
     </row>
     <row r="34">
@@ -5626,19 +5627,19 @@
         <v>44228</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>31672</v>
+        <v>31493</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>60613</v>
+        <v>58960</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0319789028781952</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0229006247891096</v>
+        <v>0.022771209204119</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04382621570304659</v>
+        <v>0.04263122491096215</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>10</v>
@@ -5647,19 +5648,19 @@
         <v>11476</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>5879</v>
+        <v>5438</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>21453</v>
+        <v>21410</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01227698975725667</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.006289203172492574</v>
+        <v>0.005817104026733652</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0229506693548374</v>
+        <v>0.02290454891406933</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>50</v>
@@ -5668,19 +5669,19 @@
         <v>55704</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>41027</v>
+        <v>41559</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>73595</v>
+        <v>73214</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02403316878390623</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01770092806865447</v>
+        <v>0.01793051008106562</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0317520288734332</v>
+        <v>0.03158762569261839</v>
       </c>
     </row>
     <row r="35">
@@ -5697,19 +5698,19 @@
         <v>28138</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>18878</v>
+        <v>19196</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>41150</v>
+        <v>40774</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02034492549554105</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01364996782852335</v>
+        <v>0.01387998038457124</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02975343182306127</v>
+        <v>0.02948147415745664</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>62</v>
@@ -5718,19 +5719,19 @@
         <v>68213</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>53242</v>
+        <v>53593</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>86237</v>
+        <v>85909</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07297406367909946</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05695826485823857</v>
+        <v>0.05733354201477655</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09225607348084341</v>
+        <v>0.09190494146004241</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>88</v>
@@ -5739,19 +5740,19 @@
         <v>96351</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>78436</v>
+        <v>77231</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>118618</v>
+        <v>118583</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04157013012674618</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0338406082595676</v>
+        <v>0.0333210492382358</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05117731560422686</v>
+        <v>0.05116200056572646</v>
       </c>
     </row>
     <row r="36">
@@ -5768,19 +5769,19 @@
         <v>371587</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>340886</v>
+        <v>336165</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>405951</v>
+        <v>406519</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2686757189828686</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2464769436815523</v>
+        <v>0.2430637306109642</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2935225871958154</v>
+        <v>0.2939331448472066</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>319</v>
@@ -5789,19 +5790,19 @@
         <v>345281</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>316399</v>
+        <v>315236</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>375851</v>
+        <v>379397</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.369379078870418</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3384806387476646</v>
+        <v>0.3372365689412603</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4020825676014685</v>
+        <v>0.4058756843611464</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>673</v>
@@ -5810,19 +5811,19 @@
         <v>716869</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>670195</v>
+        <v>666596</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>763039</v>
+        <v>765800</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3092891414031293</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2891521289754624</v>
+        <v>0.2875994189466659</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3292090958925056</v>
+        <v>0.3304004360386468</v>
       </c>
     </row>
     <row r="37">
@@ -5839,19 +5840,19 @@
         <v>532789</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>499281</v>
+        <v>497369</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>570664</v>
+        <v>571745</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3852320487178051</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3610046010697775</v>
+        <v>0.3596217380429678</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.412617995213575</v>
+        <v>0.4133990979037384</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>276</v>
@@ -5860,19 +5861,19 @@
         <v>295488</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>267335</v>
+        <v>265320</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>329783</v>
+        <v>323859</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3161110036514174</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2859928202273834</v>
+        <v>0.2838376294498832</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3527987380388203</v>
+        <v>0.3464622297948584</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>785</v>
@@ -5881,19 +5882,19 @@
         <v>828277</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>783906</v>
+        <v>781052</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>879714</v>
+        <v>877280</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3573556977743431</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3382121258424539</v>
+        <v>0.33698063911599</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3795479621859323</v>
+        <v>0.3784976553985335</v>
       </c>
     </row>
     <row r="38">
@@ -6225,19 +6226,19 @@
         <v>39698</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29203</v>
+        <v>29233</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54553</v>
+        <v>53506</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1447524798181532</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1064820420578194</v>
+        <v>0.1065938638473913</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1989169158857756</v>
+        <v>0.1951001219205047</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -6246,19 +6247,19 @@
         <v>50271</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38486</v>
+        <v>38595</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>65085</v>
+        <v>64276</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1894914711742252</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1450669479304814</v>
+        <v>0.145480822714515</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2453299402631432</v>
+        <v>0.2422798902068954</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -6267,19 +6268,19 @@
         <v>89970</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>73763</v>
+        <v>72941</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>110993</v>
+        <v>109238</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1667507586092027</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1367133780172484</v>
+        <v>0.1351896051788381</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2057163715741422</v>
+        <v>0.202462682895687</v>
       </c>
     </row>
     <row r="5">
@@ -6296,19 +6297,19 @@
         <v>43811</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31400</v>
+        <v>32783</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>58147</v>
+        <v>58859</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1597474301598024</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1144942723208604</v>
+        <v>0.1195361578068329</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2120204052239477</v>
+        <v>0.2146176301954985</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>41</v>
@@ -6317,19 +6318,19 @@
         <v>41170</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30892</v>
+        <v>30303</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>53628</v>
+        <v>55541</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1551842833007673</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1164453266391877</v>
+        <v>0.1142229380231098</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2021447913851133</v>
+        <v>0.2093541698033352</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>80</v>
@@ -6338,19 +6339,19 @@
         <v>84981</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>68408</v>
+        <v>69762</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>103764</v>
+        <v>102361</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1575037189422062</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1267887847574191</v>
+        <v>0.1292972352230415</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1923181465059441</v>
+        <v>0.1897162149887017</v>
       </c>
     </row>
     <row r="6">
@@ -6367,19 +6368,19 @@
         <v>4794</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1459</v>
+        <v>1276</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12964</v>
+        <v>11156</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01748028598148725</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005318836081597753</v>
+        <v>0.004651306208757453</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04727203538425572</v>
+        <v>0.04067762474689337</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -6391,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5039</v>
+        <v>5435</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.003753468210293258</v>
@@ -6400,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01899274548037723</v>
+        <v>0.02048501687778024</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -6409,19 +6410,19 @@
         <v>5790</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2283</v>
+        <v>1977</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13549</v>
+        <v>12291</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01073077386483388</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004232012403567091</v>
+        <v>0.003664494658151824</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02511249502854548</v>
+        <v>0.02278073009895391</v>
       </c>
     </row>
     <row r="7">
@@ -6438,19 +6439,19 @@
         <v>6149</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2129</v>
+        <v>2069</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12666</v>
+        <v>12609</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02242091879266623</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007761228665147525</v>
+        <v>0.007543076978439176</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04618559942422706</v>
+        <v>0.04597584685851586</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -6459,19 +6460,19 @@
         <v>26716</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17616</v>
+        <v>18032</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37562</v>
+        <v>38692</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1007034020587876</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06640203465280053</v>
+        <v>0.0679685626346288</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1415868680928827</v>
+        <v>0.1458437451003109</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -6480,19 +6481,19 @@
         <v>32865</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23362</v>
+        <v>23358</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46077</v>
+        <v>44750</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0609126200837836</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0432992786308256</v>
+        <v>0.04329124798264849</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08539927835378076</v>
+        <v>0.08294095990110055</v>
       </c>
     </row>
     <row r="8">
@@ -6509,19 +6510,19 @@
         <v>82834</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>66861</v>
+        <v>68806</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>99080</v>
+        <v>98343</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3020391586920765</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2437974935846238</v>
+        <v>0.2508876539196903</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3612766434896952</v>
+        <v>0.3585885874588258</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>83</v>
@@ -6530,19 +6531,19 @@
         <v>85739</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>71186</v>
+        <v>70735</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>99817</v>
+        <v>101190</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3231840864281961</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2683278270907903</v>
+        <v>0.2666259418817378</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3762459945585583</v>
+        <v>0.3814216002739824</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>160</v>
@@ -6551,19 +6552,19 @@
         <v>168574</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>147627</v>
+        <v>147435</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>191009</v>
+        <v>189303</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3124361748351913</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2736140731072151</v>
+        <v>0.273257288988274</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3540180979673432</v>
+        <v>0.3508569655239435</v>
       </c>
     </row>
     <row r="9">
@@ -6580,19 +6581,19 @@
         <v>96964</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>78893</v>
+        <v>80043</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>113298</v>
+        <v>112749</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3535597265558144</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2876693289977618</v>
+        <v>0.2918619560042681</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4131206836182509</v>
+        <v>0.411116417464275</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>59</v>
@@ -6601,19 +6602,19 @@
         <v>60403</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>47386</v>
+        <v>47537</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>74316</v>
+        <v>74246</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2276832888277306</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1786143827453842</v>
+        <v>0.1791829782429123</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2801234319429505</v>
+        <v>0.2798601857329316</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>148</v>
@@ -6622,19 +6623,19 @@
         <v>157367</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>134877</v>
+        <v>136406</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>177311</v>
+        <v>177765</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2916659536647823</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2499815175544233</v>
+        <v>0.2528154791932068</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3286298151618641</v>
+        <v>0.3294719577540175</v>
       </c>
     </row>
     <row r="10">
@@ -6726,19 +6727,19 @@
         <v>37503</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25945</v>
+        <v>27217</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>51499</v>
+        <v>53166</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1005668759971517</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06957451989702707</v>
+        <v>0.0729847593821331</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1380981086101287</v>
+        <v>0.1425695471496735</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -6747,19 +6748,19 @@
         <v>29486</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20352</v>
+        <v>20751</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41475</v>
+        <v>41411</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1149293638057962</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07932744268288429</v>
+        <v>0.08088295759971857</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1616612664227084</v>
+        <v>0.1614113342123087</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>63</v>
@@ -6768,19 +6769,19 @@
         <v>66989</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>52518</v>
+        <v>51377</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>83065</v>
+        <v>82120</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1064206707296465</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08343216174547033</v>
+        <v>0.08161969249781734</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1319609400860163</v>
+        <v>0.1304596889229739</v>
       </c>
     </row>
     <row r="12">
@@ -6797,19 +6798,19 @@
         <v>72562</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>58096</v>
+        <v>58812</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>89930</v>
+        <v>90392</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1945818757681585</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1557905376428849</v>
+        <v>0.1577087852146897</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2411559097822659</v>
+        <v>0.2423949027275326</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>44</v>
@@ -6818,19 +6819,19 @@
         <v>44856</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>34104</v>
+        <v>33526</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>59611</v>
+        <v>57812</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1748408012444001</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1329285792304853</v>
+        <v>0.13067609573723</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2323494177267455</v>
+        <v>0.2253379612811099</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>112</v>
@@ -6839,19 +6840,19 @@
         <v>117419</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>100078</v>
+        <v>98302</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>140988</v>
+        <v>139326</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1865359021457188</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1589882964074661</v>
+        <v>0.1561659516141037</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2239790340853014</v>
+        <v>0.2213394828744647</v>
       </c>
     </row>
     <row r="13">
@@ -6868,19 +6869,19 @@
         <v>7538</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2968</v>
+        <v>3109</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13986</v>
+        <v>15625</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02021311137111875</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007959576252621057</v>
+        <v>0.008338234995687289</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03750347260040131</v>
+        <v>0.04189894525439406</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -6892,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6712</v>
+        <v>5986</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007619953346046264</v>
@@ -6901,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02616109468135683</v>
+        <v>0.02333216056336155</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -6910,19 +6911,19 @@
         <v>9493</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4870</v>
+        <v>4497</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17836</v>
+        <v>17061</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01508045168884038</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007736870223191111</v>
+        <v>0.007143896307898488</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02833497068975832</v>
+        <v>0.02710435576859006</v>
       </c>
     </row>
     <row r="14">
@@ -6939,19 +6940,19 @@
         <v>9517</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4316</v>
+        <v>4294</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17098</v>
+        <v>16183</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02551961503436796</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01157427328409738</v>
+        <v>0.01151577070086536</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04585014612027354</v>
+        <v>0.04339731520927341</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -6960,19 +6961,19 @@
         <v>21105</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13234</v>
+        <v>13260</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31482</v>
+        <v>31904</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08226213697764163</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05158247062394807</v>
+        <v>0.05168509122411714</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1227109799665235</v>
+        <v>0.1243548869901422</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>29</v>
@@ -6981,19 +6982,19 @@
         <v>30621</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20789</v>
+        <v>20933</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>43671</v>
+        <v>44599</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04864646328555238</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03302616797702073</v>
+        <v>0.03325426603398642</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0693781517750555</v>
+        <v>0.07085137346768626</v>
       </c>
     </row>
     <row r="15">
@@ -7010,19 +7011,19 @@
         <v>91389</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>75676</v>
+        <v>76639</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>107816</v>
+        <v>108819</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2450679380087576</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2029321354599764</v>
+        <v>0.2055154692770101</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.289117925728408</v>
+        <v>0.2918085700696653</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>81</v>
@@ -7031,19 +7032,19 @@
         <v>81970</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>68327</v>
+        <v>66213</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>97847</v>
+        <v>96132</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3195011549604848</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2663245162477894</v>
+        <v>0.2580836809180903</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3813867592807185</v>
+        <v>0.3747000692689351</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>171</v>
@@ -7052,19 +7053,19 @@
         <v>173359</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>152732</v>
+        <v>151812</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>196472</v>
+        <v>198164</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2754050759141012</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2426360323977832</v>
+        <v>0.2411752921979965</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3121229959375034</v>
+        <v>0.3148115448205696</v>
       </c>
     </row>
     <row r="16">
@@ -7081,19 +7082,19 @@
         <v>154405</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>134563</v>
+        <v>136852</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>176144</v>
+        <v>173192</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4140505838204455</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3608437704297282</v>
+        <v>0.3669803937687505</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4723468921892419</v>
+        <v>0.4644295385135953</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>74</v>
@@ -7102,19 +7103,19 @@
         <v>77184</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>62196</v>
+        <v>62944</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>91650</v>
+        <v>92176</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.300846589665631</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2424260005677132</v>
+        <v>0.2453423110042259</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3572307549982189</v>
+        <v>0.3592815950373451</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>220</v>
@@ -7123,19 +7124,19 @@
         <v>231589</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>208961</v>
+        <v>207743</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>256082</v>
+        <v>257141</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3679114362361406</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3319645989769401</v>
+        <v>0.3300284998739303</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.406821942882918</v>
+        <v>0.4085043886784429</v>
       </c>
     </row>
     <row r="17">
@@ -7227,19 +7228,19 @@
         <v>39934</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28067</v>
+        <v>27928</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>54715</v>
+        <v>55579</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09186595194767515</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06456739739465772</v>
+        <v>0.06424625249278017</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1258685976326236</v>
+        <v>0.1278580127158629</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -7248,19 +7249,19 @@
         <v>12272</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6478</v>
+        <v>6917</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19851</v>
+        <v>20944</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04442641246298991</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02345004464643738</v>
+        <v>0.02503880730598102</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0718613273721011</v>
+        <v>0.07582052471362329</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>45</v>
@@ -7269,19 +7270,19 @@
         <v>52206</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>38294</v>
+        <v>38956</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>68618</v>
+        <v>70390</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07343311054451461</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05386460734797315</v>
+        <v>0.05479572976947283</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09651873181294289</v>
+        <v>0.09901004549040246</v>
       </c>
     </row>
     <row r="19">
@@ -7298,19 +7299,19 @@
         <v>83819</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>67759</v>
+        <v>67726</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>102249</v>
+        <v>101656</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1928207111744503</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1558763673130594</v>
+        <v>0.1557994222052571</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2352193105914752</v>
+        <v>0.2338550979910303</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -7319,19 +7320,19 @@
         <v>40807</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30553</v>
+        <v>30617</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>54303</v>
+        <v>54497</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1477258353606591</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1106035596147573</v>
+        <v>0.1108372002109804</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1965818704124001</v>
+        <v>0.1972845489312639</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>121</v>
@@ -7340,19 +7341,19 @@
         <v>124626</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>103089</v>
+        <v>105600</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>146140</v>
+        <v>146944</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1752988991374853</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1450051061108451</v>
+        <v>0.1485370847832619</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2055599538460512</v>
+        <v>0.2066918921751331</v>
       </c>
     </row>
     <row r="20">
@@ -7369,19 +7370,19 @@
         <v>6955</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3174</v>
+        <v>3286</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13284</v>
+        <v>14240</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01599933495187491</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007301226022568863</v>
+        <v>0.0075599740228654</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03055846049534061</v>
+        <v>0.03275768638791021</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -7393,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7500</v>
+        <v>7436</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.007779780677253191</v>
@@ -7402,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02715193556042808</v>
+        <v>0.02691994114609965</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -7411,19 +7412,19 @@
         <v>9104</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4019</v>
+        <v>4369</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16844</v>
+        <v>17654</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01280559104131937</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005652446235952229</v>
+        <v>0.006145942336142982</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02369294001439965</v>
+        <v>0.02483279178575497</v>
       </c>
     </row>
     <row r="21">
@@ -7440,19 +7441,19 @@
         <v>9115</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4249</v>
+        <v>4252</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19096</v>
+        <v>17814</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02096845460848029</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.009775108726939229</v>
+        <v>0.009780774422029031</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04392934095262394</v>
+        <v>0.04098099398780129</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>17</v>
@@ -7461,19 +7462,19 @@
         <v>17857</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>10773</v>
+        <v>10889</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>28242</v>
+        <v>26916</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06464381544150959</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03899891967515136</v>
+        <v>0.03941817622077793</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1022378624576038</v>
+        <v>0.09744010403323652</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>25</v>
@@ -7482,19 +7483,19 @@
         <v>26972</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>17928</v>
+        <v>17437</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>37548</v>
+        <v>39168</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03793870786570118</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02521784303209413</v>
+        <v>0.02452722315618446</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05281559032810225</v>
+        <v>0.0550942166638567</v>
       </c>
     </row>
     <row r="22">
@@ -7511,19 +7512,19 @@
         <v>117519</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>98488</v>
+        <v>98512</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>135071</v>
+        <v>138584</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2703478404605303</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2265677263176774</v>
+        <v>0.2266232637227481</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3107233329597572</v>
+        <v>0.318806416042947</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>98</v>
@@ -7532,19 +7533,19 @@
         <v>98081</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>82697</v>
+        <v>83869</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>115089</v>
+        <v>114437</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3550612655760751</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2993712312654585</v>
+        <v>0.3036146527460847</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4166328829352668</v>
+        <v>0.4142708568844475</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>207</v>
@@ -7553,19 +7554,19 @@
         <v>215600</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>190288</v>
+        <v>191383</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>241429</v>
+        <v>243078</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3032636138182682</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2676591470476321</v>
+        <v>0.269198841391108</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3395938534248552</v>
+        <v>0.3419141079239074</v>
       </c>
     </row>
     <row r="23">
@@ -7582,19 +7583,19 @@
         <v>177355</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>156341</v>
+        <v>156184</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>198350</v>
+        <v>200775</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4079977068569891</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3596548711708784</v>
+        <v>0.3592929106584248</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4562938285328952</v>
+        <v>0.4618729807282878</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>106</v>
@@ -7603,19 +7604,19 @@
         <v>105070</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>88564</v>
+        <v>89351</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>120734</v>
+        <v>119912</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3803628904815131</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3206093976065684</v>
+        <v>0.3234583018544079</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4370700078197458</v>
+        <v>0.4340912629641449</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>274</v>
@@ -7624,19 +7625,19 @@
         <v>282426</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>257619</v>
+        <v>257618</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>310161</v>
+        <v>309007</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3972600775927114</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3623672346021224</v>
+        <v>0.3623654477965224</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4362728576856549</v>
+        <v>0.434648873716946</v>
       </c>
     </row>
     <row r="24">
@@ -7728,19 +7729,19 @@
         <v>29950</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19605</v>
+        <v>20681</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41896</v>
+        <v>43532</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1134399725078143</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07425593044655428</v>
+        <v>0.07833307908912567</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1586858316883253</v>
+        <v>0.1648838702858342</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -7749,19 +7750,19 @@
         <v>27653</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18480</v>
+        <v>19342</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38571</v>
+        <v>38490</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1483200042569145</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09912108142823942</v>
+        <v>0.1037406350041415</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2068817357116698</v>
+        <v>0.2064453620015366</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>51</v>
@@ -7770,19 +7771,19 @@
         <v>57603</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>43588</v>
+        <v>43900</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>73962</v>
+        <v>75753</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1278764550138529</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09676374179831761</v>
+        <v>0.09745501552841444</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1641913857749522</v>
+        <v>0.1681675421269466</v>
       </c>
     </row>
     <row r="26">
@@ -7799,19 +7800,19 @@
         <v>51814</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>40344</v>
+        <v>38761</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>66773</v>
+        <v>66061</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1962522251525048</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1528057753648772</v>
+        <v>0.1468122663346013</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2529114916808011</v>
+        <v>0.2502141899819759</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>32</v>
@@ -7820,19 +7821,19 @@
         <v>34744</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>25436</v>
+        <v>24674</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>48237</v>
+        <v>45536</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1863516703568142</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1364268958567965</v>
+        <v>0.1323396966455725</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2587256244205872</v>
+        <v>0.2442360716419955</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>78</v>
@@ -7841,19 +7842,19 @@
         <v>86558</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>69709</v>
+        <v>69790</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>103931</v>
+        <v>104667</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1921544884550102</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1547496196632439</v>
+        <v>0.1549302475332492</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2307218715376194</v>
+        <v>0.2323564242116135</v>
       </c>
     </row>
     <row r="27">
@@ -7870,19 +7871,19 @@
         <v>6711</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2262</v>
+        <v>2323</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>14450</v>
+        <v>13999</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02541746506566174</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.008567652089644849</v>
+        <v>0.008799978256833103</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05473109258311609</v>
+        <v>0.05302173667329619</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2</v>
@@ -7894,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7358</v>
+        <v>7516</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01156274369152203</v>
@@ -7903,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03946433075219258</v>
+        <v>0.04031465064375569</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>8</v>
@@ -7912,19 +7913,19 @@
         <v>8866</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4152</v>
+        <v>4369</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>17130</v>
+        <v>16846</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01968313993136863</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.009216200798966808</v>
+        <v>0.009698952249216755</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.0380282281811977</v>
+        <v>0.03739831347933455</v>
       </c>
     </row>
     <row r="28">
@@ -7941,19 +7942,19 @@
         <v>6221</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2203</v>
+        <v>2962</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>13792</v>
+        <v>13215</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02356394624556084</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008345970612834517</v>
+        <v>0.01121846368136451</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05223987130120748</v>
+        <v>0.05005411824544641</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>8</v>
@@ -7962,19 +7963,19 @@
         <v>8305</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3540</v>
+        <v>3823</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>16421</v>
+        <v>14944</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04454442946764012</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01898529821079709</v>
+        <v>0.02050777634452729</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08807812193369538</v>
+        <v>0.08015187517525278</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>14</v>
@@ -7983,19 +7984,19 @@
         <v>14526</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>7815</v>
+        <v>8710</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>22699</v>
+        <v>23723</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03224755012478029</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01734923425544373</v>
+        <v>0.01933538282620128</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05039139647119704</v>
+        <v>0.05266444817452523</v>
       </c>
     </row>
     <row r="29">
@@ -8012,19 +8013,19 @@
         <v>87164</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>72813</v>
+        <v>73011</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>104732</v>
+        <v>105874</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3301420775567878</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2757871262795136</v>
+        <v>0.2765360833220347</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3966844896787874</v>
+        <v>0.4010081154599319</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>63</v>
@@ -8033,19 +8034,19 @@
         <v>65875</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>52884</v>
+        <v>52839</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>79686</v>
+        <v>80744</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3533292356801245</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2836478568362778</v>
+        <v>0.2834092697944171</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4274077174952443</v>
+        <v>0.4330827446483327</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>142</v>
@@ -8054,19 +8055,19 @@
         <v>153039</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>132502</v>
+        <v>130094</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>173437</v>
+        <v>174054</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.339739001235647</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.294147380864866</v>
+        <v>0.288803525804408</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3850215032336896</v>
+        <v>0.3863907020178617</v>
       </c>
     </row>
     <row r="30">
@@ -8083,19 +8084,19 @@
         <v>82159</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>66187</v>
+        <v>66825</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>98251</v>
+        <v>98957</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3111843134716706</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2506906635642118</v>
+        <v>0.2531071946493312</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3721352183502326</v>
+        <v>0.3748096711962197</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>46</v>
@@ -8104,19 +8105,19 @@
         <v>47709</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>35065</v>
+        <v>35571</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>59309</v>
+        <v>60741</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2558919165469847</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1880746865264546</v>
+        <v>0.1907909372967413</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3181100988420492</v>
+        <v>0.3257924047654419</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>122</v>
@@ -8125,19 +8126,19 @@
         <v>129867</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>109120</v>
+        <v>111503</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>148312</v>
+        <v>149980</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.288299365239341</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2422414030596115</v>
+        <v>0.247530895149227</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3292446998714119</v>
+        <v>0.3329479833999244</v>
       </c>
     </row>
     <row r="31">
@@ -8229,19 +8230,19 @@
         <v>147085</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>125536</v>
+        <v>122537</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>172252</v>
+        <v>173600</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1092856059122514</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09327434354904124</v>
+        <v>0.09104640203493046</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1279845099834737</v>
+        <v>0.12898626118316</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>114</v>
@@ -8250,19 +8251,19 @@
         <v>119682</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>100932</v>
+        <v>100747</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>146362</v>
+        <v>142332</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1215628997732876</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1025180276895081</v>
+        <v>0.1023298718118601</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1486620351215608</v>
+        <v>0.1445688217670818</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>242</v>
@@ -8271,19 +8272,19 @@
         <v>266768</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>236318</v>
+        <v>234367</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>301410</v>
+        <v>300286</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.11447240205691</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1014060609633572</v>
+        <v>0.1005688799400355</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.12933781951318</v>
+        <v>0.1288552905309372</v>
       </c>
     </row>
     <row r="33">
@@ -8300,19 +8301,19 @@
         <v>252006</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>224749</v>
+        <v>224978</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>283693</v>
+        <v>281867</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1872425102673702</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1669903650910028</v>
+        <v>0.167160785688356</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2107861381458858</v>
+        <v>0.2094297319267013</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>158</v>
@@ -8321,19 +8322,19 @@
         <v>161577</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>137690</v>
+        <v>139582</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>184833</v>
+        <v>185166</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.164116038012222</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1398532007438865</v>
+        <v>0.1417756826335652</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.187737417228872</v>
+        <v>0.1880753503457587</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>391</v>
@@ -8342,19 +8343,19 @@
         <v>413583</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>377428</v>
+        <v>376278</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>450189</v>
+        <v>450426</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1774722548275095</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1619576375222415</v>
+        <v>0.1614645194721412</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1931801964669145</v>
+        <v>0.1932820105250461</v>
       </c>
     </row>
     <row r="34">
@@ -8371,19 +8372,19 @@
         <v>25997</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>16828</v>
+        <v>16459</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>38717</v>
+        <v>36609</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01931619280087727</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01250321236964122</v>
+        <v>0.01222910359520521</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02876713381941398</v>
+        <v>0.0272006894629742</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>7</v>
@@ -8392,19 +8393,19 @@
         <v>7256</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3157</v>
+        <v>3112</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>14376</v>
+        <v>14187</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.007369563566689136</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.003206957310554378</v>
+        <v>0.003160782400191628</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01460227072135296</v>
+        <v>0.0144094705990298</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>31</v>
@@ -8413,19 +8414,19 @@
         <v>33253</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>22330</v>
+        <v>22693</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>45976</v>
+        <v>46630</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01426909275139431</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.009581939933600202</v>
+        <v>0.009737752513282627</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01972887074465384</v>
+        <v>0.02000955682866761</v>
       </c>
     </row>
     <row r="35">
@@ -8442,19 +8443,19 @@
         <v>31002</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>21049</v>
+        <v>20741</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>44564</v>
+        <v>43332</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02303460191392058</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01563975951364337</v>
+        <v>0.0154108985849462</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03311113964230895</v>
+        <v>0.03219603771691784</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>71</v>
@@ -8463,19 +8464,19 @@
         <v>73983</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>59297</v>
+        <v>58642</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>92938</v>
+        <v>91809</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0751454905423445</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0602286706418031</v>
+        <v>0.05956326312604734</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09439851731670347</v>
+        <v>0.09325126848099763</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>100</v>
@@ -8484,19 +8485,19 @@
         <v>104985</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>86020</v>
+        <v>85724</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>127492</v>
+        <v>125612</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04504992217032034</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03691189125684591</v>
+        <v>0.03678477959578264</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0547077996144265</v>
+        <v>0.05390137468047713</v>
       </c>
     </row>
     <row r="36">
@@ -8513,19 +8514,19 @@
         <v>378906</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>345805</v>
+        <v>342566</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>410665</v>
+        <v>412570</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2815308278157783</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2569358227260005</v>
+        <v>0.2545297447767401</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3051274885938572</v>
+        <v>0.3065431834007104</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>325</v>
@@ -8534,19 +8535,19 @@
         <v>331665</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>303328</v>
+        <v>303018</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>360434</v>
+        <v>361080</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3368769701608504</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3080940818617044</v>
+        <v>0.3077795474968257</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3660975978593167</v>
+        <v>0.3667536623194506</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>680</v>
@@ -8555,19 +8556,19 @@
         <v>710572</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>668062</v>
+        <v>666563</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>753277</v>
+        <v>758154</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3049129477671629</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2866715916640611</v>
+        <v>0.2860284440654454</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3232380381707146</v>
+        <v>0.3253307564309408</v>
       </c>
     </row>
     <row r="37">
@@ -8584,19 +8585,19 @@
         <v>510883</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>468824</v>
+        <v>472421</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>546036</v>
+        <v>547125</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3795902612898022</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3483402527970799</v>
+        <v>0.3510128816610338</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4057098432940295</v>
+        <v>0.4065184286426269</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>285</v>
@@ -8605,19 +8606,19 @@
         <v>290366</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>260171</v>
+        <v>263198</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>317672</v>
+        <v>318222</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2949290379446064</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.264259625455553</v>
+        <v>0.2673335440170316</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.322663488722747</v>
+        <v>0.3232226957286489</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>764</v>
@@ -8626,19 +8627,19 @@
         <v>801249</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>758280</v>
+        <v>758285</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>847215</v>
+        <v>844287</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3438233804267029</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3253850789186759</v>
+        <v>0.3253872207068373</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3635479775889582</v>
+        <v>0.3622912445172978</v>
       </c>
     </row>
     <row r="38">
@@ -8701,6 +8702,2743 @@
       </c>
       <c r="T38" s="5" t="n">
         <v>2330409</v>
+      </c>
+      <c r="U38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W38" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A11:A17"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población menor de 65 años que trabaja actualmente según el tipo de jornada que tiene en su trabajo en 2023 (tasa de respuesta: 99,43%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Con dificultad</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Otra posibilidad</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>15215</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7678</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>25966</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.08666847253877726</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.04373458497337706</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1479111945546686</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>33055</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>24090</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>42967</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.1943618383755263</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.1416470022997221</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.2526412831122737</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>48270</v>
+      </c>
+      <c r="S4" s="5" t="n">
+        <v>37420</v>
+      </c>
+      <c r="T4" s="5" t="n">
+        <v>63544</v>
+      </c>
+      <c r="U4" s="6" t="n">
+        <v>0.1396610980412304</v>
+      </c>
+      <c r="V4" s="6" t="n">
+        <v>0.1082674180261557</v>
+      </c>
+      <c r="W4" s="6" t="n">
+        <v>0.1838539309941049</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Turnos</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>24790</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>15553</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>35599</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.1412116536945225</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.08859182695524374</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.202784579139224</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>28657</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>20829</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>39396</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.1684978782705197</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0.1224752815268217</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>0.2316464250506527</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>53447</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>40030</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>67279</v>
+      </c>
+      <c r="U5" s="6" t="n">
+        <v>0.1546383738002305</v>
+      </c>
+      <c r="V5" s="6" t="n">
+        <v>0.1158207581634696</v>
+      </c>
+      <c r="W5" s="6" t="n">
+        <v>0.1946605287176174</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua nocturna</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3207</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>796</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>8911</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.01826922063954623</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.004531435669462688</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.05075948596892607</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6" t="inlineStr"/>
+      <c r="P6" s="6" t="inlineStr"/>
+      <c r="Q6" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>3207</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>791</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>8984</v>
+      </c>
+      <c r="U6" s="6" t="n">
+        <v>0.009279493556071636</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>0.002289527726728883</v>
+      </c>
+      <c r="W6" s="6" t="n">
+        <v>0.02599463346995163</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de tarde</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1404</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>7989</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.007997824854927239</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.04550678762063742</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>15269</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>9372</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>24003</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.0897773202247656</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.05510597717193334</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.1411357825567995</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>16673</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>10429</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>26331</v>
+      </c>
+      <c r="U7" s="6" t="n">
+        <v>0.04823902391339904</v>
+      </c>
+      <c r="V7" s="6" t="n">
+        <v>0.03017546933957689</v>
+      </c>
+      <c r="W7" s="6" t="n">
+        <v>0.07618321214465879</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de mañana</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>97326</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>82768</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>111619</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.5543979126298118</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.4714728514765825</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.6358122887747376</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>63203</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>51327</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>75119</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.3716285304247175</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0.3017980311835821</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>0.4416923809212593</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>160529</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>141266</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>181247</v>
+      </c>
+      <c r="U8" s="6" t="n">
+        <v>0.4644626659295526</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>0.4087260808962072</v>
+      </c>
+      <c r="W8" s="6" t="n">
+        <v>0.5244046297266129</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Jornada partida</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>33610</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>23902</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>46199</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.191454915642415</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.1361548303499306</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2631638282831298</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>29887</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>21793</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>39575</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.175734432704471</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>0.1281394017767896</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>0.2326941389982888</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>63498</v>
+      </c>
+      <c r="S9" s="5" t="n">
+        <v>47576</v>
+      </c>
+      <c r="T9" s="5" t="n">
+        <v>78884</v>
+      </c>
+      <c r="U9" s="6" t="n">
+        <v>0.1837193447595158</v>
+      </c>
+      <c r="V9" s="6" t="n">
+        <v>0.13765196870688</v>
+      </c>
+      <c r="W9" s="6" t="n">
+        <v>0.2282365490555153</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>143</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>175553</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>175553</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>175553</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>207</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>170071</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>170071</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>170071</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>350</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>345624</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>345624</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>345624</v>
+      </c>
+      <c r="U10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Con cierta/alguna dificultad</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Otra posibilidad</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>25359</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>16542</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>39397</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.04979486077194623</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.03248191635689359</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.07736006564550772</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>34446</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>26382</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>45468</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>0.09545854836246065</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>0.07311291535784004</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>0.1260046857204113</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>59804</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>46976</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>75175</v>
+      </c>
+      <c r="U11" s="6" t="n">
+        <v>0.06873209041265572</v>
+      </c>
+      <c r="V11" s="6" t="n">
+        <v>0.05398872471272728</v>
+      </c>
+      <c r="W11" s="6" t="n">
+        <v>0.08639768979257052</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Turnos</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>117061</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>96441</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>142037</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.2298635872862571</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.1893733156502519</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.2789068762878708</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>99</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>80609</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>66887</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>95260</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>0.2233909045916434</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>0.1853639543024814</v>
+      </c>
+      <c r="P12" s="6" t="n">
+        <v>0.2639942009125482</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>183</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>197670</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>173074</v>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>228685</v>
+      </c>
+      <c r="U12" s="6" t="n">
+        <v>0.2271792951266198</v>
+      </c>
+      <c r="V12" s="6" t="n">
+        <v>0.198911471209374</v>
+      </c>
+      <c r="W12" s="6" t="n">
+        <v>0.2628238554947801</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua nocturna</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>9989</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4270</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>20886</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.01961533413004267</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.008385303796527929</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.04101137082751116</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>3200</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>953</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>8757</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.008868213604534679</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.002642044331411239</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.02426765006024657</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="R13" s="5" t="n">
+        <v>13189</v>
+      </c>
+      <c r="S13" s="5" t="n">
+        <v>7042</v>
+      </c>
+      <c r="T13" s="5" t="n">
+        <v>23430</v>
+      </c>
+      <c r="U13" s="6" t="n">
+        <v>0.01515838594852515</v>
+      </c>
+      <c r="V13" s="6" t="n">
+        <v>0.008092799900810412</v>
+      </c>
+      <c r="W13" s="6" t="n">
+        <v>0.0269279609176299</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de tarde</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>4972</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1358</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>12859</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.009763262190004458</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.002666643521809568</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.02524988195443665</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>10887</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>6403</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>18267</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.03017024256293334</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0.01774567779239616</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>0.05062436953622953</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <v>15859</v>
+      </c>
+      <c r="S14" s="5" t="n">
+        <v>9996</v>
+      </c>
+      <c r="T14" s="5" t="n">
+        <v>25163</v>
+      </c>
+      <c r="U14" s="6" t="n">
+        <v>0.0182262596829157</v>
+      </c>
+      <c r="V14" s="6" t="n">
+        <v>0.01148863032034308</v>
+      </c>
+      <c r="W14" s="6" t="n">
+        <v>0.02891961296931804</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de mañana</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>196115</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>169766</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>220433</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.385094370509601</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.3333560140053072</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.4328464429517798</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>139470</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>121313</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>154959</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.3865118400060862</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.3361922131766715</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.4294349882147966</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>345</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>335585</v>
+      </c>
+      <c r="S15" s="5" t="n">
+        <v>308088</v>
+      </c>
+      <c r="T15" s="5" t="n">
+        <v>368708</v>
+      </c>
+      <c r="U15" s="6" t="n">
+        <v>0.3856822105807831</v>
+      </c>
+      <c r="V15" s="6" t="n">
+        <v>0.3540806966876918</v>
+      </c>
+      <c r="W15" s="6" t="n">
+        <v>0.4237499946962676</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Jornada partida</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>134</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>155768</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>132767</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>180086</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.3058685851121485</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.2607039104193436</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.3536200714457898</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>119</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>92232</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>78140</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>108770</v>
+      </c>
+      <c r="N16" s="6" t="n">
+        <v>0.2556002508723417</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>0.2165483937755004</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <v>0.3014317368727822</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>253</v>
+      </c>
+      <c r="R16" s="5" t="n">
+        <v>247999</v>
+      </c>
+      <c r="S16" s="5" t="n">
+        <v>219951</v>
+      </c>
+      <c r="T16" s="5" t="n">
+        <v>274384</v>
+      </c>
+      <c r="U16" s="6" t="n">
+        <v>0.2850217582485006</v>
+      </c>
+      <c r="V16" s="6" t="n">
+        <v>0.2527860695687763</v>
+      </c>
+      <c r="W16" s="6" t="n">
+        <v>0.3153450229594242</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>417</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>509264</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>509264</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>509264</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>463</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>360843</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>360843</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>360843</v>
+      </c>
+      <c r="N17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>880</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <v>870107</v>
+      </c>
+      <c r="S17" s="5" t="n">
+        <v>870107</v>
+      </c>
+      <c r="T17" s="5" t="n">
+        <v>870107</v>
+      </c>
+      <c r="U17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Con cierta/alguna facilidad</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Otra posibilidad</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>45386</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>33771</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>59621</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.07273072938721874</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.05411877228265777</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.09554305122042876</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>30442</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>21721</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>42568</v>
+      </c>
+      <c r="N18" s="6" t="n">
+        <v>0.06238746765227742</v>
+      </c>
+      <c r="O18" s="6" t="n">
+        <v>0.04451393884010436</v>
+      </c>
+      <c r="P18" s="6" t="n">
+        <v>0.08723810878741124</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>82</v>
+      </c>
+      <c r="R18" s="5" t="n">
+        <v>75828</v>
+      </c>
+      <c r="S18" s="5" t="n">
+        <v>60491</v>
+      </c>
+      <c r="T18" s="5" t="n">
+        <v>93658</v>
+      </c>
+      <c r="U18" s="6" t="n">
+        <v>0.06819194992180821</v>
+      </c>
+      <c r="V18" s="6" t="n">
+        <v>0.05439936386419092</v>
+      </c>
+      <c r="W18" s="6" t="n">
+        <v>0.08422681864051254</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Turnos</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>102715</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>84847</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>124796</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.1646005574480576</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.1359671922877999</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.1999861410799935</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>114196</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>99128</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>133419</v>
+      </c>
+      <c r="N19" s="6" t="n">
+        <v>0.2340302011549318</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>0.2031509620853544</v>
+      </c>
+      <c r="P19" s="6" t="n">
+        <v>0.2734272276621094</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>250</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>216910</v>
+      </c>
+      <c r="S19" s="5" t="n">
+        <v>191911</v>
+      </c>
+      <c r="T19" s="5" t="n">
+        <v>245298</v>
+      </c>
+      <c r="U19" s="6" t="n">
+        <v>0.195067333714869</v>
+      </c>
+      <c r="V19" s="6" t="n">
+        <v>0.1725853001674419</v>
+      </c>
+      <c r="W19" s="6" t="n">
+        <v>0.2205967792240899</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua nocturna</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>7759</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>3665</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>15056</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.01243427705115769</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0.005873657771443331</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>0.02412701717809214</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>2194</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>7665</v>
+      </c>
+      <c r="N20" s="6" t="n">
+        <v>0.004497089347027597</v>
+      </c>
+      <c r="O20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6" t="n">
+        <v>0.01570939896862111</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R20" s="5" t="n">
+        <v>9954</v>
+      </c>
+      <c r="S20" s="5" t="n">
+        <v>4849</v>
+      </c>
+      <c r="T20" s="5" t="n">
+        <v>18440</v>
+      </c>
+      <c r="U20" s="6" t="n">
+        <v>0.008951319209830392</v>
+      </c>
+      <c r="V20" s="6" t="n">
+        <v>0.004360543867408233</v>
+      </c>
+      <c r="W20" s="6" t="n">
+        <v>0.01658279687142999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de tarde</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>9988</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>4547</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>18325</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.01600649727939351</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.007286320225078526</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0.0293660230970033</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>15600</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>9992</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>24134</v>
+      </c>
+      <c r="N21" s="6" t="n">
+        <v>0.03196960948940281</v>
+      </c>
+      <c r="O21" s="6" t="n">
+        <v>0.02047730758296202</v>
+      </c>
+      <c r="P21" s="6" t="n">
+        <v>0.04945922098242316</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="R21" s="5" t="n">
+        <v>25588</v>
+      </c>
+      <c r="S21" s="5" t="n">
+        <v>17361</v>
+      </c>
+      <c r="T21" s="5" t="n">
+        <v>36615</v>
+      </c>
+      <c r="U21" s="6" t="n">
+        <v>0.02301135201086329</v>
+      </c>
+      <c r="V21" s="6" t="n">
+        <v>0.01561315882741231</v>
+      </c>
+      <c r="W21" s="6" t="n">
+        <v>0.0329283021894275</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de mañana</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>216</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>248885</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>221443</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>276202</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.3988390772418316</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.3548635621653073</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.4426141793628383</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>295</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>207992</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>190458</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>226944</v>
+      </c>
+      <c r="N22" s="6" t="n">
+        <v>0.4262548850226958</v>
+      </c>
+      <c r="O22" s="6" t="n">
+        <v>0.3903207004176942</v>
+      </c>
+      <c r="P22" s="6" t="n">
+        <v>0.4650940144513718</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>511</v>
+      </c>
+      <c r="R22" s="5" t="n">
+        <v>456877</v>
+      </c>
+      <c r="S22" s="5" t="n">
+        <v>421920</v>
+      </c>
+      <c r="T22" s="5" t="n">
+        <v>489964</v>
+      </c>
+      <c r="U22" s="6" t="n">
+        <v>0.410869547761887</v>
+      </c>
+      <c r="V22" s="6" t="n">
+        <v>0.3794326154592942</v>
+      </c>
+      <c r="W22" s="6" t="n">
+        <v>0.4406243740490364</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Jornada partida</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>183</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>209291</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>182848</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>234458</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.3353888615923407</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.293014121675989</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.3757188703316096</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>117528</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>102622</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>135312</v>
+      </c>
+      <c r="N23" s="6" t="n">
+        <v>0.2408607473336646</v>
+      </c>
+      <c r="O23" s="6" t="n">
+        <v>0.2103126079561115</v>
+      </c>
+      <c r="P23" s="6" t="n">
+        <v>0.2773051881897008</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>344</v>
+      </c>
+      <c r="R23" s="5" t="n">
+        <v>326819</v>
+      </c>
+      <c r="S23" s="5" t="n">
+        <v>295580</v>
+      </c>
+      <c r="T23" s="5" t="n">
+        <v>360363</v>
+      </c>
+      <c r="U23" s="6" t="n">
+        <v>0.293908497380742</v>
+      </c>
+      <c r="V23" s="6" t="n">
+        <v>0.2658150770132662</v>
+      </c>
+      <c r="W23" s="6" t="n">
+        <v>0.3240740306891388</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>556</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>624024</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>624024</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>624024</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>670</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>487952</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>487952</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>487952</v>
+      </c>
+      <c r="N24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>1226</v>
+      </c>
+      <c r="R24" s="5" t="n">
+        <v>1111976</v>
+      </c>
+      <c r="S24" s="5" t="n">
+        <v>1111976</v>
+      </c>
+      <c r="T24" s="5" t="n">
+        <v>1111976</v>
+      </c>
+      <c r="U24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Con facilidad</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Otra posibilidad</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>43854</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>31163</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>61458</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>0.07494316457947015</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>0.05325480067860188</v>
+      </c>
+      <c r="I25" s="6" t="n">
+        <v>0.1050262648004854</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="K25" s="5" t="n">
+        <v>34130</v>
+      </c>
+      <c r="L25" s="5" t="n">
+        <v>24627</v>
+      </c>
+      <c r="M25" s="5" t="n">
+        <v>47453</v>
+      </c>
+      <c r="N25" s="6" t="n">
+        <v>0.07333515956956949</v>
+      </c>
+      <c r="O25" s="6" t="n">
+        <v>0.05291600977233429</v>
+      </c>
+      <c r="P25" s="6" t="n">
+        <v>0.1019619692932693</v>
+      </c>
+      <c r="Q25" s="5" t="n">
+        <v>79</v>
+      </c>
+      <c r="R25" s="5" t="n">
+        <v>77984</v>
+      </c>
+      <c r="S25" s="5" t="n">
+        <v>60736</v>
+      </c>
+      <c r="T25" s="5" t="n">
+        <v>98625</v>
+      </c>
+      <c r="U25" s="6" t="n">
+        <v>0.07423082390806635</v>
+      </c>
+      <c r="V25" s="6" t="n">
+        <v>0.05781278257222894</v>
+      </c>
+      <c r="W25" s="6" t="n">
+        <v>0.09387817301403045</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Turnos</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>105083</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>86074</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>127258</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>0.1795777446981449</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>0.1470934295932418</v>
+      </c>
+      <c r="I26" s="6" t="n">
+        <v>0.2174731559188113</v>
+      </c>
+      <c r="J26" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K26" s="5" t="n">
+        <v>74270</v>
+      </c>
+      <c r="L26" s="5" t="n">
+        <v>61728</v>
+      </c>
+      <c r="M26" s="5" t="n">
+        <v>90540</v>
+      </c>
+      <c r="N26" s="6" t="n">
+        <v>0.1595838149469975</v>
+      </c>
+      <c r="O26" s="6" t="n">
+        <v>0.1326348731377923</v>
+      </c>
+      <c r="P26" s="6" t="n">
+        <v>0.1945430485682178</v>
+      </c>
+      <c r="Q26" s="5" t="n">
+        <v>190</v>
+      </c>
+      <c r="R26" s="5" t="n">
+        <v>179353</v>
+      </c>
+      <c r="S26" s="5" t="n">
+        <v>151205</v>
+      </c>
+      <c r="T26" s="5" t="n">
+        <v>204611</v>
+      </c>
+      <c r="U26" s="6" t="n">
+        <v>0.1707205028019814</v>
+      </c>
+      <c r="V26" s="6" t="n">
+        <v>0.1439276569938998</v>
+      </c>
+      <c r="W26" s="6" t="n">
+        <v>0.194763157829595</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua nocturna</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>5017</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>1848</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>11631</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>0.008573650629915922</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>0.003158124847725503</v>
+      </c>
+      <c r="I27" s="6" t="n">
+        <v>0.01987669396557063</v>
+      </c>
+      <c r="J27" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" s="5" t="n">
+        <v>2542</v>
+      </c>
+      <c r="L27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5" t="n">
+        <v>9268</v>
+      </c>
+      <c r="N27" s="6" t="n">
+        <v>0.005462221781713132</v>
+      </c>
+      <c r="O27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="6" t="n">
+        <v>0.01991341819522705</v>
+      </c>
+      <c r="Q27" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="R27" s="5" t="n">
+        <v>7559</v>
+      </c>
+      <c r="S27" s="5" t="n">
+        <v>3627</v>
+      </c>
+      <c r="T27" s="5" t="n">
+        <v>16656</v>
+      </c>
+      <c r="U27" s="6" t="n">
+        <v>0.007195298385297685</v>
+      </c>
+      <c r="V27" s="6" t="n">
+        <v>0.003451952323326001</v>
+      </c>
+      <c r="W27" s="6" t="n">
+        <v>0.01585414249654986</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de tarde</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>16341</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>8786</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>28136</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <v>0.02792517457191069</v>
+      </c>
+      <c r="H28" s="6" t="n">
+        <v>0.01501438958835791</v>
+      </c>
+      <c r="I28" s="6" t="n">
+        <v>0.04808124137578955</v>
+      </c>
+      <c r="J28" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="K28" s="5" t="n">
+        <v>20811</v>
+      </c>
+      <c r="L28" s="5" t="n">
+        <v>13176</v>
+      </c>
+      <c r="M28" s="5" t="n">
+        <v>35527</v>
+      </c>
+      <c r="N28" s="6" t="n">
+        <v>0.04471631737495142</v>
+      </c>
+      <c r="O28" s="6" t="n">
+        <v>0.02831043506885687</v>
+      </c>
+      <c r="P28" s="6" t="n">
+        <v>0.07633756665630832</v>
+      </c>
+      <c r="Q28" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="R28" s="5" t="n">
+        <v>37152</v>
+      </c>
+      <c r="S28" s="5" t="n">
+        <v>25120</v>
+      </c>
+      <c r="T28" s="5" t="n">
+        <v>56678</v>
+      </c>
+      <c r="U28" s="6" t="n">
+        <v>0.03536359290040469</v>
+      </c>
+      <c r="V28" s="6" t="n">
+        <v>0.02391121761624223</v>
+      </c>
+      <c r="W28" s="6" t="n">
+        <v>0.05394972165262478</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de mañana</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>241</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>267855</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>240843</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>294445</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>0.4577404507548224</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <v>0.4115787449457021</v>
+      </c>
+      <c r="I29" s="6" t="n">
+        <v>0.5031804454840727</v>
+      </c>
+      <c r="J29" s="5" t="n">
+        <v>366</v>
+      </c>
+      <c r="K29" s="5" t="n">
+        <v>247544</v>
+      </c>
+      <c r="L29" s="5" t="n">
+        <v>229389</v>
+      </c>
+      <c r="M29" s="5" t="n">
+        <v>266161</v>
+      </c>
+      <c r="N29" s="6" t="n">
+        <v>0.5318982788705661</v>
+      </c>
+      <c r="O29" s="6" t="n">
+        <v>0.4928884967663651</v>
+      </c>
+      <c r="P29" s="6" t="n">
+        <v>0.5719001897970606</v>
+      </c>
+      <c r="Q29" s="5" t="n">
+        <v>607</v>
+      </c>
+      <c r="R29" s="5" t="n">
+        <v>515399</v>
+      </c>
+      <c r="S29" s="5" t="n">
+        <v>481883</v>
+      </c>
+      <c r="T29" s="5" t="n">
+        <v>546437</v>
+      </c>
+      <c r="U29" s="6" t="n">
+        <v>0.4905921127487614</v>
+      </c>
+      <c r="V29" s="6" t="n">
+        <v>0.4586891864429747</v>
+      </c>
+      <c r="W29" s="6" t="n">
+        <v>0.5201366682682387</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Jornada partida</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>132</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>147017</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>123782</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>171010</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>0.2512398147657359</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <v>0.2115325083840558</v>
+      </c>
+      <c r="I30" s="6" t="n">
+        <v>0.2922403881406468</v>
+      </c>
+      <c r="J30" s="5" t="n">
+        <v>116</v>
+      </c>
+      <c r="K30" s="5" t="n">
+        <v>86100</v>
+      </c>
+      <c r="L30" s="5" t="n">
+        <v>72583</v>
+      </c>
+      <c r="M30" s="5" t="n">
+        <v>103731</v>
+      </c>
+      <c r="N30" s="6" t="n">
+        <v>0.1850042074562023</v>
+      </c>
+      <c r="O30" s="6" t="n">
+        <v>0.1559587743659667</v>
+      </c>
+      <c r="P30" s="6" t="n">
+        <v>0.2228872491818948</v>
+      </c>
+      <c r="Q30" s="5" t="n">
+        <v>248</v>
+      </c>
+      <c r="R30" s="5" t="n">
+        <v>233118</v>
+      </c>
+      <c r="S30" s="5" t="n">
+        <v>209112</v>
+      </c>
+      <c r="T30" s="5" t="n">
+        <v>265244</v>
+      </c>
+      <c r="U30" s="6" t="n">
+        <v>0.2218976692554885</v>
+      </c>
+      <c r="V30" s="6" t="n">
+        <v>0.1990475183131558</v>
+      </c>
+      <c r="W30" s="6" t="n">
+        <v>0.2524773045546819</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>515</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>585168</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>585168</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>585168</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="n">
+        <v>648</v>
+      </c>
+      <c r="K31" s="5" t="n">
+        <v>465397</v>
+      </c>
+      <c r="L31" s="5" t="n">
+        <v>465397</v>
+      </c>
+      <c r="M31" s="5" t="n">
+        <v>465397</v>
+      </c>
+      <c r="N31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="5" t="n">
+        <v>1163</v>
+      </c>
+      <c r="R31" s="5" t="n">
+        <v>1050565</v>
+      </c>
+      <c r="S31" s="5" t="n">
+        <v>1050565</v>
+      </c>
+      <c r="T31" s="5" t="n">
+        <v>1050565</v>
+      </c>
+      <c r="U31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Otra posibilidad</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>113</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>129814</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>108124</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>156992</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>0.06853911378618992</v>
+      </c>
+      <c r="H32" s="6" t="n">
+        <v>0.05708719983535124</v>
+      </c>
+      <c r="I32" s="6" t="n">
+        <v>0.08288891690397868</v>
+      </c>
+      <c r="J32" s="5" t="n">
+        <v>169</v>
+      </c>
+      <c r="K32" s="5" t="n">
+        <v>132073</v>
+      </c>
+      <c r="L32" s="5" t="n">
+        <v>114197</v>
+      </c>
+      <c r="M32" s="5" t="n">
+        <v>153136</v>
+      </c>
+      <c r="N32" s="6" t="n">
+        <v>0.08898214346015147</v>
+      </c>
+      <c r="O32" s="6" t="n">
+        <v>0.07693883963223264</v>
+      </c>
+      <c r="P32" s="6" t="n">
+        <v>0.1031731048769787</v>
+      </c>
+      <c r="Q32" s="5" t="n">
+        <v>282</v>
+      </c>
+      <c r="R32" s="5" t="n">
+        <v>261887</v>
+      </c>
+      <c r="S32" s="5" t="n">
+        <v>232775</v>
+      </c>
+      <c r="T32" s="5" t="n">
+        <v>294974</v>
+      </c>
+      <c r="U32" s="6" t="n">
+        <v>0.07752087155842666</v>
+      </c>
+      <c r="V32" s="6" t="n">
+        <v>0.06890344250625112</v>
+      </c>
+      <c r="W32" s="6" t="n">
+        <v>0.08731510437444727</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Turnos</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>291</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>349649</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>313717</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>386710</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <v>0.1846080130096721</v>
+      </c>
+      <c r="H33" s="6" t="n">
+        <v>0.1656363996804476</v>
+      </c>
+      <c r="I33" s="6" t="n">
+        <v>0.2041755028207747</v>
+      </c>
+      <c r="J33" s="5" t="n">
+        <v>387</v>
+      </c>
+      <c r="K33" s="5" t="n">
+        <v>297731</v>
+      </c>
+      <c r="L33" s="5" t="n">
+        <v>268185</v>
+      </c>
+      <c r="M33" s="5" t="n">
+        <v>322876</v>
+      </c>
+      <c r="N33" s="6" t="n">
+        <v>0.20059180651433</v>
+      </c>
+      <c r="O33" s="6" t="n">
+        <v>0.1806857453282764</v>
+      </c>
+      <c r="P33" s="6" t="n">
+        <v>0.2175330421448928</v>
+      </c>
+      <c r="Q33" s="5" t="n">
+        <v>678</v>
+      </c>
+      <c r="R33" s="5" t="n">
+        <v>647380</v>
+      </c>
+      <c r="S33" s="5" t="n">
+        <v>597490</v>
+      </c>
+      <c r="T33" s="5" t="n">
+        <v>697190</v>
+      </c>
+      <c r="U33" s="6" t="n">
+        <v>0.1916305807909607</v>
+      </c>
+      <c r="V33" s="6" t="n">
+        <v>0.1768627875089546</v>
+      </c>
+      <c r="W33" s="6" t="n">
+        <v>0.2063747878331442</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua nocturna</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>25973</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>16369</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>38663</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>0.01371319312801684</v>
+      </c>
+      <c r="H34" s="6" t="n">
+        <v>0.008642596323174344</v>
+      </c>
+      <c r="I34" s="6" t="n">
+        <v>0.02041335812407566</v>
+      </c>
+      <c r="J34" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K34" s="5" t="n">
+        <v>7936</v>
+      </c>
+      <c r="L34" s="5" t="n">
+        <v>3296</v>
+      </c>
+      <c r="M34" s="5" t="n">
+        <v>16208</v>
+      </c>
+      <c r="N34" s="6" t="n">
+        <v>0.005347097236951807</v>
+      </c>
+      <c r="O34" s="6" t="n">
+        <v>0.002220317584474592</v>
+      </c>
+      <c r="P34" s="6" t="n">
+        <v>0.01091984382834329</v>
+      </c>
+      <c r="Q34" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="R34" s="5" t="n">
+        <v>33909</v>
+      </c>
+      <c r="S34" s="5" t="n">
+        <v>22543</v>
+      </c>
+      <c r="T34" s="5" t="n">
+        <v>49684</v>
+      </c>
+      <c r="U34" s="6" t="n">
+        <v>0.01003750278312827</v>
+      </c>
+      <c r="V34" s="6" t="n">
+        <v>0.006672948936079773</v>
+      </c>
+      <c r="W34" s="6" t="n">
+        <v>0.01470683583023193</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de tarde</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>32705</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>21894</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>46044</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <v>0.01726785937475632</v>
+      </c>
+      <c r="H35" s="6" t="n">
+        <v>0.0115596520646027</v>
+      </c>
+      <c r="I35" s="6" t="n">
+        <v>0.02431011440010005</v>
+      </c>
+      <c r="J35" s="5" t="n">
+        <v>72</v>
+      </c>
+      <c r="K35" s="5" t="n">
+        <v>62566</v>
+      </c>
+      <c r="L35" s="5" t="n">
+        <v>48490</v>
+      </c>
+      <c r="M35" s="5" t="n">
+        <v>82233</v>
+      </c>
+      <c r="N35" s="6" t="n">
+        <v>0.04215270986508825</v>
+      </c>
+      <c r="O35" s="6" t="n">
+        <v>0.03266911448789651</v>
+      </c>
+      <c r="P35" s="6" t="n">
+        <v>0.05540356237077758</v>
+      </c>
+      <c r="Q35" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="R35" s="5" t="n">
+        <v>95271</v>
+      </c>
+      <c r="S35" s="5" t="n">
+        <v>76210</v>
+      </c>
+      <c r="T35" s="5" t="n">
+        <v>119961</v>
+      </c>
+      <c r="U35" s="6" t="n">
+        <v>0.02820115560663401</v>
+      </c>
+      <c r="V35" s="6" t="n">
+        <v>0.02255885486665403</v>
+      </c>
+      <c r="W35" s="6" t="n">
+        <v>0.03550965427809184</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de mañana</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>699</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>810181</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>765276</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>859680</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <v>0.4277598992936019</v>
+      </c>
+      <c r="H36" s="6" t="n">
+        <v>0.4040509872753646</v>
+      </c>
+      <c r="I36" s="6" t="n">
+        <v>0.4538944223724864</v>
+      </c>
+      <c r="J36" s="5" t="n">
+        <v>918</v>
+      </c>
+      <c r="K36" s="5" t="n">
+        <v>658209</v>
+      </c>
+      <c r="L36" s="5" t="n">
+        <v>624114</v>
+      </c>
+      <c r="M36" s="5" t="n">
+        <v>692377</v>
+      </c>
+      <c r="N36" s="6" t="n">
+        <v>0.443458538719164</v>
+      </c>
+      <c r="O36" s="6" t="n">
+        <v>0.4204879587610761</v>
+      </c>
+      <c r="P36" s="6" t="n">
+        <v>0.4664787119860599</v>
+      </c>
+      <c r="Q36" s="5" t="n">
+        <v>1617</v>
+      </c>
+      <c r="R36" s="5" t="n">
+        <v>1468390</v>
+      </c>
+      <c r="S36" s="5" t="n">
+        <v>1412952</v>
+      </c>
+      <c r="T36" s="5" t="n">
+        <v>1531185</v>
+      </c>
+      <c r="U36" s="6" t="n">
+        <v>0.4346571830584285</v>
+      </c>
+      <c r="V36" s="6" t="n">
+        <v>0.4182472131843308</v>
+      </c>
+      <c r="W36" s="6" t="n">
+        <v>0.4532450281767785</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Jornada partida</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>478</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>545687</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>500294</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>584893</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>0.2881119214077629</v>
+      </c>
+      <c r="H37" s="6" t="n">
+        <v>0.2641453843181009</v>
+      </c>
+      <c r="I37" s="6" t="n">
+        <v>0.3088120240843903</v>
+      </c>
+      <c r="J37" s="5" t="n">
+        <v>434</v>
+      </c>
+      <c r="K37" s="5" t="n">
+        <v>325748</v>
+      </c>
+      <c r="L37" s="5" t="n">
+        <v>297794</v>
+      </c>
+      <c r="M37" s="5" t="n">
+        <v>353974</v>
+      </c>
+      <c r="N37" s="6" t="n">
+        <v>0.2194677042043145</v>
+      </c>
+      <c r="O37" s="6" t="n">
+        <v>0.200634305433586</v>
+      </c>
+      <c r="P37" s="6" t="n">
+        <v>0.2384850810282055</v>
+      </c>
+      <c r="Q37" s="5" t="n">
+        <v>912</v>
+      </c>
+      <c r="R37" s="5" t="n">
+        <v>871434</v>
+      </c>
+      <c r="S37" s="5" t="n">
+        <v>822246</v>
+      </c>
+      <c r="T37" s="5" t="n">
+        <v>920714</v>
+      </c>
+      <c r="U37" s="6" t="n">
+        <v>0.2579527062024219</v>
+      </c>
+      <c r="V37" s="6" t="n">
+        <v>0.2433925464717717</v>
+      </c>
+      <c r="W37" s="6" t="n">
+        <v>0.2725399130824033</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>1631</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>1894009</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>1894009</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>1894009</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5" t="n">
+        <v>1988</v>
+      </c>
+      <c r="K38" s="5" t="n">
+        <v>1484262</v>
+      </c>
+      <c r="L38" s="5" t="n">
+        <v>1484262</v>
+      </c>
+      <c r="M38" s="5" t="n">
+        <v>1484262</v>
+      </c>
+      <c r="N38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="5" t="n">
+        <v>3619</v>
+      </c>
+      <c r="R38" s="5" t="n">
+        <v>3378271</v>
+      </c>
+      <c r="S38" s="5" t="n">
+        <v>3378271</v>
+      </c>
+      <c r="T38" s="5" t="n">
+        <v>3378271</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>1</v>
